--- a/Examples/copper/copper_model.xlsx
+++ b/Examples/copper/copper_model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ctorr\Documents\Proyectos\TaesLab\Examples\copper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{751F732B-DE1F-41F8-B01A-100673931DBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3DF2B01-A368-49BB-AF06-919327858649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="919" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5340" yWindow="3090" windowWidth="21600" windowHeight="11295" tabRatio="919" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PhysicalDiagram" sheetId="5" r:id="rId1"/>
@@ -19,21 +19,20 @@
     <sheet name="Processes" sheetId="2" r:id="rId4"/>
     <sheet name="Exergy" sheetId="3" r:id="rId5"/>
     <sheet name="Format" sheetId="6" r:id="rId6"/>
-    <sheet name="eResourcesCost" sheetId="7" r:id="rId7"/>
-    <sheet name="ResourcesCost" sheetId="15" r:id="rId8"/>
-    <sheet name="WasteDefinition" sheetId="8" r:id="rId9"/>
-    <sheet name="WasteAllocation" sheetId="17" r:id="rId10"/>
-    <sheet name="EXERGIAS" sheetId="11" r:id="rId11"/>
-    <sheet name="CosteEnergias" sheetId="12" r:id="rId12"/>
-    <sheet name="H2" sheetId="14" state="hidden" r:id="rId13"/>
-    <sheet name="RXCFI" sheetId="13" state="hidden" r:id="rId14"/>
+    <sheet name="ResourcesCost" sheetId="15" r:id="rId7"/>
+    <sheet name="WasteDefinition" sheetId="8" r:id="rId8"/>
+    <sheet name="WasteAllocation" sheetId="17" r:id="rId9"/>
+    <sheet name="EXERGIAS" sheetId="11" r:id="rId10"/>
+    <sheet name="CosteEnergias" sheetId="12" r:id="rId11"/>
+    <sheet name="H2" sheetId="14" state="hidden" r:id="rId12"/>
+    <sheet name="RXCFI" sheetId="13" state="hidden" r:id="rId13"/>
   </sheets>
   <definedNames>
-    <definedName name="cgam_flows" localSheetId="2">Flows!$A$1:$B$6</definedName>
-    <definedName name="cgam_processes" localSheetId="3">Processes!$A$1:$E$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Flows!$B$1:$B$37</definedName>
+    <definedName name="cgam_flows" localSheetId="2">Flows!$A$1:$B$4</definedName>
+    <definedName name="cgam_processes" localSheetId="3">Processes!$A$1:$D$5</definedName>
     <definedName name="cgam_sample" localSheetId="4">Exergy!$A$1:$B$7</definedName>
-    <definedName name="tgas_c0" localSheetId="6">eResourcesCost!$A$1:$B$2</definedName>
-    <definedName name="tgas_c0" localSheetId="7">ResourcesCost!$A$1:$B$2</definedName>
+    <definedName name="tgas_c0" localSheetId="6">ResourcesCost!$A$1:$B$2</definedName>
     <definedName name="tgas_fmt" localSheetId="5">Format!$A$1:$D$7</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -54,259 +53,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>usuario</author>
-  </authors>
-  <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{61EFFE9C-F683-40FA-BFE5-FFBF5B2DDF95}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">usuario:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>En caso de flujos minerales:
-- Total -&gt; siempre 1
-- NO_REN --&gt; % NO_REN
-- REN --&gt; % REN</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-En caso de flujos energéticos (H2, Elec, Coke, Gas Natural)</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-- Total --&gt; coste unitario del flujo energético (en exergy se pone SOLO su exergía)
-- No_REN --&gt; Coste unit</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{10C80303-10E5-454B-8D40-E525E2D550DA}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>usuario:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-En Amarillo, los flujos Electricidad
-En marrón, coke
-En gris, gas natural</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>usuario</author>
-  </authors>
-  <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{957C39F1-112D-428B-8784-45416BA5D978}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">usuario:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>En caso de flujos minerales:
-- Total -&gt; siempre 1
-- NO_REN --&gt; % NO_REN
-- REN --&gt; % REN</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-En caso de flujos energéticos (H2, Elec, Coke, Gas Natural)</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-- Total --&gt; coste unitario del flujo energético (en exergy se pone SOLO su exergía)
-- No_REN --&gt; Coste unit</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{E5F87BA0-C088-44B0-8E36-60A10D2E06B9}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>usuario:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-En Amarillo, los flujos Electricidad
-En marrón, coke
-En gris, gas natural</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>usuario</author>
-  </authors>
-  <commentList>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{C09529EF-A3FD-4DDC-97EA-7D2E3C4616EB}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>usuario:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Es la exergía del HSC</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{E73E364C-8731-4492-AD84-F69258770027}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>usuario:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-El coste exergético está basado en el balance de masas elemental. 
-Se multiplica la masa elemental de cada flujo por su coste exergético (exergía invertida en su ciclo de vida)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I3" authorId="0" shapeId="0" xr:uid="{0B39B7EA-AD7B-4040-B690-53014720910D}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>usuario:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-REVISAR, IGUAL ESTOY HACIENDO "DOUBLE COUNTING" POR QUE EN LA PESTAÑA "ResourcesCost", YA ESTOY CONTABILIDAZANDO EL COSTE DE CICLO DE VIDA DE LA ELECTRICIDAD. PERO OJO, NO SE REPARTE DE ACUERDO AL COSTE DE CICLO DE VIDA, SI NO LA EXERGÍA, POR ESO EN "Exergy" TEGNO QUE SUMAR LA EXERGÍA AL CICLO DE VIDA PARA QUE REPARTA DE ACUERDO A ESA SUMA.</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
@@ -361,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="214">
   <si>
     <t>key</t>
   </si>
@@ -480,55 +226,22 @@
     <t>OXI</t>
   </si>
   <si>
-    <t>Shredding Eq1</t>
-  </si>
-  <si>
-    <t>Reduction Eq2</t>
-  </si>
-  <si>
-    <t>Oxidation Eq3</t>
-  </si>
-  <si>
     <t>FR</t>
   </si>
   <si>
     <t>AC</t>
   </si>
   <si>
-    <t>Fire refining Eq4</t>
-  </si>
-  <si>
-    <t>Anode casting Eq5</t>
-  </si>
-  <si>
     <t>ER</t>
-  </si>
-  <si>
-    <t>Electrorefining Eq6</t>
   </si>
   <si>
     <t>AB</t>
   </si>
   <si>
-    <t>Afterburner Eq7</t>
-  </si>
-  <si>
-    <t>PUMP</t>
-  </si>
-  <si>
-    <t>Pumps Eq8</t>
-  </si>
-  <si>
     <t>HE</t>
   </si>
   <si>
-    <t>Heat Exchanger Eq9</t>
-  </si>
-  <si>
     <t>ASU</t>
-  </si>
-  <si>
-    <t>ASU Eq 10</t>
   </si>
   <si>
     <t>D1</t>
@@ -540,19 +253,7 @@
     <t>D3</t>
   </si>
   <si>
-    <t>Disipativo 1</t>
-  </si>
-  <si>
-    <t>Disipativo 2</t>
-  </si>
-  <si>
-    <t>Disipativo 3</t>
-  </si>
-  <si>
     <t>D4</t>
-  </si>
-  <si>
-    <t>Disipativo 4</t>
   </si>
   <si>
     <t>Chemical Exergy</t>
@@ -732,43 +433,13 @@
     <t>A1+A2</t>
   </si>
   <si>
-    <t>BC+C1+C2+JC+DC</t>
-  </si>
-  <si>
-    <t>CD+D1+D2+D3+FD</t>
-  </si>
-  <si>
-    <t>EF+F1+F2</t>
-  </si>
-  <si>
-    <t>BG+G1</t>
-  </si>
-  <si>
-    <t>J1+J2</t>
-  </si>
-  <si>
     <t>I2+I3</t>
-  </si>
-  <si>
-    <t>BC+BG+B3</t>
-  </si>
-  <si>
-    <t>CD+CB+CI</t>
-  </si>
-  <si>
-    <t>DE+DC+D4</t>
-  </si>
-  <si>
-    <t>F3+F4+F5+FD</t>
   </si>
   <si>
     <t>JB+JC</t>
   </si>
   <si>
     <t>JB</t>
-  </si>
-  <si>
-    <t>AB+B1+B2+B4+JB+CB</t>
   </si>
   <si>
     <t>HE_E</t>
@@ -784,18 +455,6 @@
   </si>
   <si>
     <t>F51</t>
-  </si>
-  <si>
-    <t>D5</t>
-  </si>
-  <si>
-    <t>D6</t>
-  </si>
-  <si>
-    <t>Disipativo 5</t>
-  </si>
-  <si>
-    <t>Disipativo 6</t>
   </si>
   <si>
     <t>Total</t>
@@ -909,16 +568,187 @@
     <t>DE-EF</t>
   </si>
   <si>
-    <t>E2-E1</t>
+    <t>Unit Cost</t>
   </si>
   <si>
-    <t>I1-HI</t>
+    <t>DC+C2+(BC-CB)+(C1+JC-CI)</t>
   </si>
   <si>
-    <t>(GI-I2)+(CI-I3)</t>
+    <t>Shredding</t>
   </si>
   <si>
-    <t>HI-H1</t>
+    <t>Reduction</t>
+  </si>
+  <si>
+    <t>Oxidation</t>
+  </si>
+  <si>
+    <t>Fire refining</t>
+  </si>
+  <si>
+    <t>Anode casting</t>
+  </si>
+  <si>
+    <t>Electrorefining</t>
+  </si>
+  <si>
+    <t>F1+(EF-FD-F4)+(F2-F5)</t>
+  </si>
+  <si>
+    <t>Afterburner</t>
+  </si>
+  <si>
+    <t>Heat Exchanger</t>
+  </si>
+  <si>
+    <t>AB+B4+(B1+JB-BG)+(CB-B3)</t>
+  </si>
+  <si>
+    <t>D2+FD+(D1-D4)+(CD-DC)</t>
+  </si>
+  <si>
+    <t>Slags</t>
+  </si>
+  <si>
+    <t>Off-Gas</t>
+  </si>
+  <si>
+    <t>Furnace Gases</t>
+  </si>
+  <si>
+    <t>Slimes</t>
+  </si>
+  <si>
+    <t>Electrolytes Bleeded</t>
+  </si>
+  <si>
+    <t>DG1</t>
+  </si>
+  <si>
+    <t>DSLG</t>
+  </si>
+  <si>
+    <t>DGF</t>
+  </si>
+  <si>
+    <t>DSLM</t>
+  </si>
+  <si>
+    <t>DELB</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Scrap</t>
+  </si>
+  <si>
+    <t>Electricity Scrap</t>
+  </si>
+  <si>
+    <t>Coke H2 RED</t>
+  </si>
+  <si>
+    <t>Electricity RED</t>
+  </si>
+  <si>
+    <t>Coke H2 OXI</t>
+  </si>
+  <si>
+    <t>Flux OXI</t>
+  </si>
+  <si>
+    <t>NG H2 FR</t>
+  </si>
+  <si>
+    <t>Flux FR</t>
+  </si>
+  <si>
+    <t>Electricity ER</t>
+  </si>
+  <si>
+    <t>Electrolyte Regen</t>
+  </si>
+  <si>
+    <t>Electricity ASU</t>
+  </si>
+  <si>
+    <t>Scrap Shredded</t>
+  </si>
+  <si>
+    <t>Air RED</t>
+  </si>
+  <si>
+    <t>Slag OXI</t>
+  </si>
+  <si>
+    <t>Slag RED</t>
+  </si>
+  <si>
+    <t>Black Copper</t>
+  </si>
+  <si>
+    <t>Off-Gas RED</t>
+  </si>
+  <si>
+    <t>Air OXI</t>
+  </si>
+  <si>
+    <t>Slag Furnace</t>
+  </si>
+  <si>
+    <t>Rough Copper</t>
+  </si>
+  <si>
+    <t>Off-Gas OXI</t>
+  </si>
+  <si>
+    <t>Exausted Anodes</t>
+  </si>
+  <si>
+    <t>Anode Copper HT</t>
+  </si>
+  <si>
+    <t>Off-Gas AF</t>
+  </si>
+  <si>
+    <t>Anode Copper</t>
+  </si>
+  <si>
+    <t>Electrolyte Bleeded</t>
+  </si>
+  <si>
+    <t>Off-Gas RED AB</t>
+  </si>
+  <si>
+    <t>Off-Gas RED LT</t>
+  </si>
+  <si>
+    <t>Off-Gas OXI LT</t>
+  </si>
+  <si>
+    <t>Copper Catode</t>
+  </si>
+  <si>
+    <t>Steam</t>
+  </si>
+  <si>
+    <t>Waste Steam Anode Casting</t>
+  </si>
+  <si>
+    <t>Gases Furnace</t>
+  </si>
+  <si>
+    <t>Gases LT Heat Exchange</t>
+  </si>
+  <si>
+    <t>WP</t>
+  </si>
+  <si>
+    <t>HE Pump</t>
+  </si>
+  <si>
+    <t>(GI-I2)+(CI-I3)+WP</t>
   </si>
 </sst>
 </file>
@@ -930,7 +760,7 @@
     <numFmt numFmtId="165" formatCode="0.000%"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -943,19 +773,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1057,9 +874,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1081,13 +898,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -1125,8 +936,36 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -18549,10 +18388,6 @@
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tgas_c0" connectionId="4" xr16:uid="{00000000-0016-0000-0600-000004000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tgas_c0" connectionId="4" xr16:uid="{3CA67903-3A51-4720-A30B-5EE428148121}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
@@ -18836,144 +18671,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2661325A-3C94-4A5B-B56A-7CFBE37AECF6}">
-  <dimension ref="A1:G5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F1" t="s">
-        <v>140</v>
-      </c>
-      <c r="G1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0.75</v>
-      </c>
-      <c r="D3">
-        <v>0.4</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0.25</v>
-      </c>
-      <c r="D4">
-        <v>0.15</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0.45</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CA9BC41-68A6-4E77-BC52-076B7D9AA93A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CA9BC41-68A6-4E77-BC52-076B7D9AA93A}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:W56"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="W3" sqref="W3"/>
+    <sheetView topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18993,62 +18698,64 @@
       <c r="B1" s="3"/>
       <c r="C1" s="7"/>
       <c r="D1" s="3" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="G1" s="3"/>
       <c r="H1" s="3" t="s">
-        <v>138</v>
+        <v>113</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="K1" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>153</v>
+      </c>
       <c r="L1" s="3" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="P1" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="Q1" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="R1" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="S1" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="T1" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="D2" s="6">
         <v>14241.934359413817</v>
@@ -19069,7 +18776,10 @@
       <c r="J2" s="6">
         <v>238320.60167495633</v>
       </c>
-      <c r="K2" s="6"/>
+      <c r="K2" s="27">
+        <f>J2/F2</f>
+        <v>16.733724202107989</v>
+      </c>
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
       <c r="N2" s="6">
@@ -19096,13 +18806,13 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="B3" s="3">
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -19110,13 +18820,13 @@
         <v>991.59999999999991</v>
       </c>
       <c r="G3" s="6"/>
-      <c r="H3" s="31">
+      <c r="H3" s="29">
         <v>1774.324036588763</v>
       </c>
-      <c r="I3" s="31">
+      <c r="I3" s="29">
         <v>345.31975790339573</v>
       </c>
-      <c r="J3" s="31">
+      <c r="J3" s="29">
         <v>2119.6437944921586</v>
       </c>
       <c r="K3" s="6"/>
@@ -19132,7 +18842,7 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B4" s="3">
         <v>1.2</v>
@@ -19179,14 +18889,14 @@
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>85</v>
+      <c r="A5" s="9" t="s">
+        <v>70</v>
       </c>
       <c r="B5" s="3">
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="D5" s="6">
         <v>1890.8298403574672</v>
@@ -19224,13 +18934,13 @@
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="B6" s="3">
         <v>2</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="D6" s="6">
         <v>0</v>
@@ -19251,7 +18961,9 @@
       <c r="J6" s="6">
         <v>0</v>
       </c>
-      <c r="K6" s="6"/>
+      <c r="K6" s="6">
+        <v>0</v>
+      </c>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
@@ -19264,7 +18976,7 @@
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -19274,19 +18986,19 @@
         <v>3062</v>
       </c>
       <c r="G7" s="6"/>
-      <c r="H7" s="31">
+      <c r="H7" s="29">
         <v>5479.0038322254868</v>
       </c>
-      <c r="I7" s="31">
+      <c r="I7" s="29">
         <v>1066.326239108711</v>
       </c>
-      <c r="J7" s="31">
+      <c r="J7" s="29">
         <v>6545.3300713341978</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="B8" s="3">
         <v>10.199999999999999</v>
@@ -19324,7 +19036,7 @@
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="B9" s="3">
         <v>3.2</v>
@@ -19380,13 +19092,13 @@
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="B10" s="3">
         <v>2</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="D10" s="6">
         <v>4867.9914625945403</v>
@@ -19438,13 +19150,13 @@
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="B11" s="3">
         <v>2</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="D11" s="5">
         <v>4867.9914625945403</v>
@@ -19494,29 +19206,29 @@
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="B12" s="3">
         <v>2.2999999999999998</v>
       </c>
       <c r="C12" s="3"/>
-      <c r="D12" s="12">
+      <c r="D12" s="10">
         <v>15338.677883346147</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="10">
         <v>2847.0574819322414</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="10">
         <v>18185.735365278386</v>
       </c>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12">
+      <c r="G12" s="10"/>
+      <c r="H12" s="10">
         <v>257952.56229626751</v>
       </c>
-      <c r="I12" s="12">
+      <c r="I12" s="10">
         <v>38804.449906379908</v>
       </c>
-      <c r="J12" s="12">
+      <c r="J12" s="10">
         <v>296757.0122026474</v>
       </c>
       <c r="K12" s="6"/>
@@ -19544,7 +19256,7 @@
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="B13" s="3">
         <v>2.7</v>
@@ -19587,14 +19299,14 @@
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
-        <v>94</v>
+      <c r="A14" s="9" t="s">
+        <v>79</v>
       </c>
       <c r="B14" s="3">
         <v>3</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="D14" s="6">
         <v>1718.936218506788</v>
@@ -19632,13 +19344,13 @@
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="B15" s="3">
         <v>3</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="D15" s="6">
         <v>2879.464294902607</v>
@@ -19659,7 +19371,10 @@
       <c r="J15" s="6">
         <v>28967.649829002719</v>
       </c>
-      <c r="K15" s="6"/>
+      <c r="K15" s="27">
+        <f>J15/F15</f>
+        <v>10.060083009288538</v>
+      </c>
       <c r="L15" s="6"/>
       <c r="M15" s="6">
         <v>676.883625132406</v>
@@ -19678,7 +19393,7 @@
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="B16" s="3">
         <v>10.3</v>
@@ -19716,7 +19431,7 @@
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="B17" s="3">
         <v>4.3</v>
@@ -19766,29 +19481,29 @@
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="B18" s="3">
         <v>3.4</v>
       </c>
       <c r="C18" s="3"/>
-      <c r="D18" s="12">
+      <c r="D18" s="10">
         <v>9706.065784013861</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E18" s="10">
         <v>2333.7083423169302</v>
       </c>
-      <c r="F18" s="12">
+      <c r="F18" s="10">
         <v>12039.774126330791</v>
       </c>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12">
+      <c r="G18" s="10"/>
+      <c r="H18" s="10">
         <v>173979.70682154506</v>
       </c>
-      <c r="I18" s="12">
+      <c r="I18" s="10">
         <v>27857.088127046612</v>
       </c>
-      <c r="J18" s="12">
+      <c r="J18" s="10">
         <v>201836.79494859168</v>
       </c>
       <c r="K18" s="6"/>
@@ -19814,7 +19529,7 @@
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="B19" s="3">
         <v>3.9</v>
@@ -19857,14 +19572,14 @@
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="30" t="s">
-        <v>56</v>
+      <c r="A20" s="28" t="s">
+        <v>45</v>
       </c>
       <c r="B20" s="3">
         <v>4</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="D20" s="6">
         <v>5403.6723560340815</v>
@@ -19897,13 +19612,13 @@
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B21" s="3">
         <v>4</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="D21" s="6">
         <v>1548.8325323083409</v>
@@ -19924,7 +19639,10 @@
       <c r="J21" s="6">
         <v>19078.019825129402</v>
       </c>
-      <c r="K21" s="6"/>
+      <c r="K21" s="27">
+        <f>J21/F21</f>
+        <v>12.317677623090731</v>
+      </c>
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
       <c r="N21" s="6"/>
@@ -19940,13 +19658,13 @@
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="B22" s="3">
         <v>4</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="D22" s="6">
         <v>102.13135240801148</v>
@@ -19979,7 +19697,7 @@
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="B23" s="3">
         <v>6.4</v>
@@ -20025,7 +19743,7 @@
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="B24" s="3">
         <v>4.5</v>
@@ -20071,13 +19789,13 @@
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="B25" s="3">
         <v>4</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="D25" s="6">
         <v>277.06706548974842</v>
@@ -20115,13 +19833,13 @@
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="B26" s="3">
         <v>4</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="D26" s="6">
         <v>277.06706548974842</v>
@@ -20159,13 +19877,13 @@
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="B27" s="3">
         <v>5</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="D27" s="6">
         <v>66.828444751058441</v>
@@ -20199,13 +19917,13 @@
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="B28" s="3">
         <v>5</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="D28" s="6">
         <v>66.828444751058313</v>
@@ -20239,13 +19957,13 @@
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="B29" s="3">
         <v>5</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="D29" s="6">
         <v>66.828444751058313</v>
@@ -20279,7 +19997,7 @@
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="B30" s="3">
         <v>5.6</v>
@@ -20324,13 +20042,13 @@
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="B31" s="3">
         <v>6</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
@@ -20359,13 +20077,13 @@
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="B32" s="3">
         <v>6</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="D32" s="6">
         <v>519.602287996874</v>
@@ -20399,13 +20117,13 @@
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="B33" s="3">
         <v>6</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="D33" s="6">
         <v>8581.7186545843142</v>
@@ -20443,13 +20161,13 @@
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="B34" s="3">
         <v>6</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="D34" s="6">
         <v>35.364344363772766</v>
@@ -20491,13 +20209,13 @@
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="B35" s="3">
         <v>6</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="D35" s="6">
         <v>336.5366919720135</v>
@@ -20535,13 +20253,13 @@
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="B36" s="3">
         <v>7</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="D36" s="6">
         <v>2.6628947346653069</v>
@@ -20575,7 +20293,7 @@
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B37" s="3">
         <v>7.9</v>
@@ -20619,13 +20337,13 @@
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="B38" s="3">
         <v>8</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="D38" s="6">
         <v>18.876023729845919</v>
@@ -20659,13 +20377,13 @@
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="B39" s="3">
         <v>8</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
@@ -20695,7 +20413,7 @@
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="B40" s="3">
         <v>8.9</v>
@@ -20733,13 +20451,13 @@
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="B41" s="3">
         <v>9</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="D41" s="6">
         <v>18.876023729845848</v>
@@ -20753,7 +20471,7 @@
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
       <c r="I41" s="6"/>
-      <c r="J41" s="12"/>
+      <c r="J41" s="10"/>
       <c r="K41" s="6"/>
       <c r="L41" s="6"/>
       <c r="M41" s="6"/>
@@ -20767,13 +20485,13 @@
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="B42" s="3">
         <v>9</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="D42" s="6">
         <v>399.50642331309803</v>
@@ -20813,13 +20531,13 @@
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="B43" s="3">
         <v>9</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="D43" s="6">
         <v>184.00757994881397</v>
@@ -20859,13 +20577,13 @@
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="B44" s="3">
         <v>9</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="D44" s="6">
         <f>D42+D43</f>
@@ -20914,13 +20632,13 @@
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="B45" s="3">
         <v>10</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="D45" s="6">
         <v>89.122943906667473</v>
@@ -20954,13 +20672,13 @@
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="B46" s="3">
         <v>10</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
@@ -20996,7 +20714,7 @@
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -21040,7 +20758,7 @@
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="D48" s="6">
         <v>336.5366919720135</v>
@@ -21078,11 +20796,11 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="B55" s="5">
-        <f>Exergy!B19+Exergy!B37+Exergy!B40</f>
-        <v>5998.124735911957</v>
+        <v>111</v>
+      </c>
+      <c r="B55" s="5" t="e">
+        <f>Exergy!B19+Exergy!B32+Exergy!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="C55" s="3"/>
       <c r="D55" s="5">
@@ -21113,11 +20831,11 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>137</v>
+        <v>112</v>
       </c>
       <c r="B56" s="5">
-        <f>Exergy!B41+Exergy!B42+Exergy!B43</f>
-        <v>5702.452597452585</v>
+        <f>Exergy!B33+Exergy!B34+Exergy!B35</f>
+        <v>1355.4436875215013</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="5">
@@ -21147,11 +20865,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D87FA40-7A85-4D58-B2F7-6C01AA033862}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -21170,107 +20887,107 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="4" t="s">
-        <v>145</v>
+        <v>116</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>146</v>
+        <v>117</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>147</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>176</v>
-      </c>
-      <c r="B2" s="29">
+        <v>147</v>
+      </c>
+      <c r="B2" s="27">
         <f>C2+D2</f>
         <v>2.1375996313958843</v>
       </c>
-      <c r="C2" s="29">
+      <c r="C2" s="27">
         <f>SUM(RXCFI!B123:E123)</f>
         <v>1.7893546153577684</v>
       </c>
-      <c r="D2" s="29">
+      <c r="D2" s="27">
         <f>SUM(RXCFI!F123:G123)</f>
         <v>0.34824501603811592</v>
       </c>
       <c r="E2" t="s">
-        <v>179</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>148</v>
+        <v>119</v>
       </c>
       <c r="B3" s="3">
         <v>1.06</v>
       </c>
-      <c r="C3" s="29">
+      <c r="C3" s="27">
         <v>1.06</v>
       </c>
-      <c r="D3" s="29">
+      <c r="D3" s="27">
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>179</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>149</v>
+        <v>120</v>
       </c>
       <c r="B4" s="3">
         <v>1.04</v>
       </c>
-      <c r="C4" s="29">
+      <c r="C4" s="27">
         <v>1.04</v>
       </c>
-      <c r="D4" s="29">
+      <c r="D4" s="27">
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>179</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>177</v>
-      </c>
-      <c r="B5" s="29">
+        <v>148</v>
+      </c>
+      <c r="B5" s="27">
         <f>C5+D5</f>
         <v>1.1822497392458799</v>
       </c>
-      <c r="C5" s="29">
+      <c r="C5" s="27">
         <f>SUM(RXCFI!B143:E143)</f>
         <v>0.1574447096534613</v>
       </c>
-      <c r="D5" s="29">
+      <c r="D5" s="27">
         <f>SUM(RXCFI!F143:G143)</f>
         <v>1.0248050295924187</v>
       </c>
       <c r="E5" t="s">
-        <v>180</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>178</v>
-      </c>
-      <c r="B6" s="29">
+        <v>149</v>
+      </c>
+      <c r="B6" s="27">
         <f>C6+D6</f>
         <v>1.898641801764358</v>
       </c>
-      <c r="C6" s="29">
+      <c r="C6" s="27">
         <f>SUM('H2'!B40:D40)</f>
         <v>0.31099807701477589</v>
       </c>
-      <c r="D6" s="29">
+      <c r="D6" s="27">
         <f>SUM('H2'!F40:H40)</f>
         <v>1.587643724749582</v>
       </c>
       <c r="E6" t="s">
-        <v>180</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -21278,7 +20995,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97F9A304-59EE-4097-B581-EAF2EF7C0131}">
   <dimension ref="A1:Z40"/>
   <sheetViews>
@@ -21289,13 +21006,13 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.7109375" customWidth="1"/>
-    <col min="9" max="9" width="5.140625" style="19" customWidth="1"/>
+    <col min="9" max="9" width="5.140625" style="17" customWidth="1"/>
     <col min="10" max="10" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="3.5703125" style="19" customWidth="1"/>
+    <col min="18" max="18" width="3.5703125" style="17" customWidth="1"/>
     <col min="19" max="19" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="3.28515625" customWidth="1"/>
     <col min="28" max="28" width="5" bestFit="1" customWidth="1"/>
@@ -21304,148 +21021,148 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>159</v>
+        <v>130</v>
       </c>
       <c r="C1" t="s">
-        <v>160</v>
+        <v>131</v>
       </c>
       <c r="D1" t="s">
-        <v>161</v>
+        <v>132</v>
       </c>
       <c r="E1" t="s">
-        <v>162</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>163</v>
-      </c>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
+        <v>133</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
       <c r="I1"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B2" s="20">
+      <c r="B2" s="18">
         <v>4.02E-2</v>
       </c>
-      <c r="C2" s="21">
+      <c r="C2" s="19">
         <v>0.37330000000000002</v>
       </c>
-      <c r="D2" s="21">
+      <c r="D2" s="19">
         <v>0.57969999999999999</v>
       </c>
-      <c r="E2" s="20">
+      <c r="E2" s="18">
         <f>0.68%</f>
         <v>6.8000000000000005E-3</v>
       </c>
-      <c r="G2" s="22">
+      <c r="G2" s="20">
         <f>A3+J3+S3</f>
         <v>1</v>
       </c>
       <c r="I2"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="23">
+      <c r="A3" s="21">
         <f>B2/SUM(B2:D2)</f>
         <v>4.0475231574708011E-2</v>
       </c>
-      <c r="B3" s="24" t="s">
-        <v>164</v>
-      </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="J3" s="25">
+      <c r="B3" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="J3" s="23">
         <f>C2/SUM(B2:D2)</f>
         <v>0.37585581957309705</v>
       </c>
-      <c r="K3" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="26"/>
-      <c r="S3" s="25">
+      <c r="K3" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="S3" s="23">
         <f>D2/SUM(B2:D2)</f>
         <v>0.58366894885219489</v>
       </c>
-      <c r="T3" s="27" t="s">
-        <v>166</v>
-      </c>
-      <c r="U3" s="27"/>
-      <c r="V3" s="27"/>
-      <c r="W3" s="27"/>
-      <c r="X3" s="27"/>
-      <c r="Y3" s="27"/>
-      <c r="Z3" s="27"/>
+      <c r="T3" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="U3" s="25"/>
+      <c r="V3" s="25"/>
+      <c r="W3" s="25"/>
+      <c r="X3" s="25"/>
+      <c r="Y3" s="25"/>
+      <c r="Z3" s="25"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>167</v>
+        <v>138</v>
       </c>
       <c r="C4" t="s">
-        <v>168</v>
+        <v>139</v>
       </c>
       <c r="D4" t="s">
-        <v>169</v>
+        <v>140</v>
       </c>
       <c r="E4" t="s">
-        <v>170</v>
+        <v>141</v>
       </c>
       <c r="F4" t="s">
-        <v>171</v>
+        <v>142</v>
       </c>
       <c r="G4" t="s">
-        <v>172</v>
+        <v>143</v>
       </c>
       <c r="H4" t="s">
-        <v>173</v>
+        <v>144</v>
       </c>
       <c r="K4" t="s">
-        <v>167</v>
+        <v>138</v>
       </c>
       <c r="L4" t="s">
-        <v>168</v>
+        <v>139</v>
       </c>
       <c r="M4" t="s">
-        <v>169</v>
+        <v>140</v>
       </c>
       <c r="N4" t="s">
-        <v>170</v>
+        <v>141</v>
       </c>
       <c r="O4" t="s">
-        <v>171</v>
+        <v>142</v>
       </c>
       <c r="P4" t="s">
-        <v>172</v>
+        <v>143</v>
       </c>
       <c r="Q4" t="s">
-        <v>173</v>
+        <v>144</v>
       </c>
       <c r="T4" t="s">
-        <v>167</v>
+        <v>138</v>
       </c>
       <c r="U4" t="s">
-        <v>168</v>
+        <v>139</v>
       </c>
       <c r="V4" t="s">
-        <v>169</v>
+        <v>140</v>
       </c>
       <c r="W4" t="s">
-        <v>170</v>
+        <v>141</v>
       </c>
       <c r="X4" t="s">
-        <v>171</v>
+        <v>142</v>
       </c>
       <c r="Y4" t="s">
-        <v>172</v>
+        <v>143</v>
       </c>
       <c r="Z4" t="s">
-        <v>173</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
@@ -21476,25 +21193,25 @@
       <c r="J5">
         <v>2020</v>
       </c>
-      <c r="K5" s="28">
+      <c r="K5" s="26">
         <v>1.72413793103448</v>
       </c>
-      <c r="L5" s="28">
+      <c r="L5" s="26">
         <v>0.204598722523152</v>
       </c>
-      <c r="M5" s="28">
+      <c r="M5" s="26">
         <v>3.0322719156862599E-3</v>
       </c>
-      <c r="N5" s="28">
+      <c r="N5" s="26">
         <v>6.8145166159116598E-3</v>
       </c>
-      <c r="O5" s="28">
+      <c r="O5" s="26">
         <v>0.20297765624618</v>
       </c>
-      <c r="P5" s="28">
+      <c r="P5" s="26">
         <v>6.6888867831639198E-3</v>
       </c>
-      <c r="Q5" s="28">
+      <c r="Q5" s="26">
         <v>2.2855632860316302E-2</v>
       </c>
       <c r="S5">
@@ -21550,25 +21267,25 @@
       <c r="J6">
         <v>2021</v>
       </c>
-      <c r="K6" s="28">
+      <c r="K6" s="26">
         <v>1.7021276595744701</v>
       </c>
-      <c r="L6" s="28">
+      <c r="L6" s="26">
         <v>0.22128633923256899</v>
       </c>
-      <c r="M6" s="28">
+      <c r="M6" s="26">
         <v>3.1916073398566801E-3</v>
       </c>
-      <c r="N6" s="28">
+      <c r="N6" s="26">
         <v>7.9859074066549098E-3</v>
       </c>
-      <c r="O6" s="28">
+      <c r="O6" s="26">
         <v>0.195188432589678</v>
       </c>
-      <c r="P6" s="28">
+      <c r="P6" s="26">
         <v>6.7225531344236701E-3</v>
       </c>
-      <c r="Q6" s="28">
+      <c r="Q6" s="26">
         <v>2.5967690855366401E-2</v>
       </c>
       <c r="S6">
@@ -21624,25 +21341,25 @@
       <c r="J7">
         <v>2022</v>
       </c>
-      <c r="K7" s="28">
+      <c r="K7" s="26">
         <v>1.6806722689075599</v>
       </c>
-      <c r="L7" s="28">
+      <c r="L7" s="26">
         <v>0.22251444988570801</v>
       </c>
-      <c r="M7" s="28">
+      <c r="M7" s="26">
         <v>3.17055118684045E-3</v>
       </c>
-      <c r="N7" s="28">
+      <c r="N7" s="26">
         <v>8.7147098577984392E-3</v>
       </c>
-      <c r="O7" s="28">
+      <c r="O7" s="26">
         <v>0.185331009962142</v>
       </c>
-      <c r="P7" s="28">
+      <c r="P7" s="26">
         <v>6.6979296586907097E-3</v>
       </c>
-      <c r="Q7" s="28">
+      <c r="Q7" s="26">
         <v>2.8666779854595301E-2</v>
       </c>
       <c r="S7">
@@ -21698,25 +21415,25 @@
       <c r="J8">
         <v>2023</v>
       </c>
-      <c r="K8" s="28">
+      <c r="K8" s="26">
         <v>1.6597510373444</v>
       </c>
-      <c r="L8" s="28">
+      <c r="L8" s="26">
         <v>0.21479298005408601</v>
       </c>
-      <c r="M8" s="28">
+      <c r="M8" s="26">
         <v>3.04597966675298E-3</v>
       </c>
-      <c r="N8" s="28">
+      <c r="N8" s="26">
         <v>9.0920030818781895E-3</v>
       </c>
-      <c r="O8" s="28">
+      <c r="O8" s="26">
         <v>0.17609213140076099</v>
       </c>
-      <c r="P8" s="28">
+      <c r="P8" s="26">
         <v>6.6694821145304303E-3</v>
       </c>
-      <c r="Q8" s="28">
+      <c r="Q8" s="26">
         <v>3.1129054876278001E-2</v>
       </c>
       <c r="S8">
@@ -21772,25 +21489,25 @@
       <c r="J9">
         <v>2024</v>
       </c>
-      <c r="K9" s="28">
+      <c r="K9" s="26">
         <v>1.63934426229508</v>
       </c>
-      <c r="L9" s="28">
+      <c r="L9" s="26">
         <v>0.20275197876922099</v>
       </c>
-      <c r="M9" s="28">
+      <c r="M9" s="26">
         <v>2.87358724044356E-3</v>
       </c>
-      <c r="N9" s="28">
+      <c r="N9" s="26">
         <v>9.2275902351027905E-3</v>
       </c>
-      <c r="O9" s="28">
+      <c r="O9" s="26">
         <v>0.16744913350432</v>
       </c>
-      <c r="P9" s="28">
+      <c r="P9" s="26">
         <v>6.63819773787672E-3</v>
       </c>
-      <c r="Q9" s="28">
+      <c r="Q9" s="26">
         <v>3.3377361944283097E-2</v>
       </c>
       <c r="S9">
@@ -21846,25 +21563,25 @@
       <c r="J10">
         <v>2025</v>
       </c>
-      <c r="K10" s="28">
+      <c r="K10" s="26">
         <v>1.6194331983805701</v>
       </c>
-      <c r="L10" s="28">
+      <c r="L10" s="26">
         <v>0.189145220399662</v>
       </c>
-      <c r="M10" s="28">
+      <c r="M10" s="26">
         <v>2.6860709265301998E-3</v>
       </c>
-      <c r="N10" s="28">
+      <c r="N10" s="26">
         <v>9.2078952961882499E-3</v>
       </c>
-      <c r="O10" s="28">
+      <c r="O10" s="26">
         <v>0.15935049556195799</v>
       </c>
-      <c r="P10" s="28">
+      <c r="P10" s="26">
         <v>6.6043039028483201E-3</v>
       </c>
-      <c r="Q10" s="28">
+      <c r="Q10" s="26">
         <v>3.5430053889715603E-2</v>
       </c>
       <c r="S10">
@@ -21920,25 +21637,25 @@
       <c r="J11">
         <v>2026</v>
       </c>
-      <c r="K11" s="28">
+      <c r="K11" s="26">
         <v>1.6</v>
       </c>
-      <c r="L11" s="28">
+      <c r="L11" s="26">
         <v>0.17542584090216001</v>
       </c>
-      <c r="M11" s="28">
+      <c r="M11" s="26">
         <v>2.50026765535067E-3</v>
       </c>
-      <c r="N11" s="28">
+      <c r="N11" s="26">
         <v>9.0904289653335694E-3</v>
       </c>
-      <c r="O11" s="28">
+      <c r="O11" s="26">
         <v>0.15175185451958501</v>
       </c>
-      <c r="P11" s="28">
+      <c r="P11" s="26">
         <v>6.56805838723604E-3</v>
       </c>
-      <c r="Q11" s="28">
+      <c r="Q11" s="26">
         <v>3.7303717229411198E-2</v>
       </c>
       <c r="S11">
@@ -21994,25 +21711,25 @@
       <c r="J12">
         <v>2027</v>
       </c>
-      <c r="K12" s="28">
+      <c r="K12" s="26">
         <v>1.5810276679841899</v>
       </c>
-      <c r="L12" s="28">
+      <c r="L12" s="26">
         <v>0.16235654704960201</v>
       </c>
-      <c r="M12" s="28">
+      <c r="M12" s="26">
         <v>2.3248872922707799E-3</v>
       </c>
-      <c r="N12" s="28">
+      <c r="N12" s="26">
         <v>8.9167531572983908E-3</v>
       </c>
-      <c r="O12" s="28">
+      <c r="O12" s="26">
         <v>0.14461529166256901</v>
       </c>
-      <c r="P12" s="28">
+      <c r="P12" s="26">
         <v>6.52970643002643E-3</v>
       </c>
-      <c r="Q12" s="28">
+      <c r="Q12" s="26">
         <v>3.9013272543832501E-2</v>
       </c>
       <c r="S12">
@@ -22068,25 +21785,25 @@
       <c r="J13">
         <v>2028</v>
       </c>
-      <c r="K13" s="28">
+      <c r="K13" s="26">
         <v>1.5625</v>
       </c>
-      <c r="L13" s="28">
+      <c r="L13" s="26">
         <v>0.15022600965101199</v>
       </c>
-      <c r="M13" s="28">
+      <c r="M13" s="26">
         <v>2.1628551483179499E-3</v>
       </c>
-      <c r="N13" s="28">
+      <c r="N13" s="26">
         <v>8.7095884244384903E-3</v>
       </c>
-      <c r="O13" s="28">
+      <c r="O13" s="26">
         <v>0.13789645626841901</v>
       </c>
-      <c r="P13" s="28">
+      <c r="P13" s="26">
         <v>6.4892791914025003E-3</v>
       </c>
-      <c r="Q13" s="28">
+      <c r="Q13" s="26">
         <v>4.0570995743535801E-2</v>
       </c>
       <c r="S13">
@@ -22142,25 +21859,25 @@
       <c r="J14">
         <v>2029</v>
       </c>
-      <c r="K14" s="28">
+      <c r="K14" s="26">
         <v>1.54440154440155</v>
       </c>
-      <c r="L14" s="28">
+      <c r="L14" s="26">
         <v>0.13915988784754499</v>
       </c>
-      <c r="M14" s="28">
+      <c r="M14" s="26">
         <v>2.0153961117966301E-3</v>
       </c>
-      <c r="N14" s="28">
+      <c r="N14" s="26">
         <v>8.4874156892339996E-3</v>
       </c>
-      <c r="O14" s="28">
+      <c r="O14" s="26">
         <v>0.13153034751256901</v>
       </c>
-      <c r="P14" s="28">
+      <c r="P14" s="26">
         <v>6.4462217221338096E-3</v>
       </c>
-      <c r="Q14" s="28">
+      <c r="Q14" s="26">
         <v>4.1984098433518198E-2</v>
       </c>
       <c r="S14">
@@ -22216,25 +21933,25 @@
       <c r="J15">
         <v>2030</v>
       </c>
-      <c r="K15" s="28">
+      <c r="K15" s="26">
         <v>1.5267175572519101</v>
       </c>
-      <c r="L15" s="28">
+      <c r="L15" s="26">
         <v>0.12912944244338601</v>
       </c>
-      <c r="M15" s="28">
+      <c r="M15" s="26">
         <v>1.8818111037048201E-3</v>
       </c>
-      <c r="N15" s="28">
+      <c r="N15" s="26">
         <v>8.2588103625293695E-3</v>
       </c>
-      <c r="O15" s="28">
+      <c r="O15" s="26">
         <v>0.12556256640716901</v>
       </c>
-      <c r="P15" s="28">
+      <c r="P15" s="26">
         <v>6.4022488797517898E-3</v>
       </c>
-      <c r="Q15" s="28">
+      <c r="Q15" s="26">
         <v>4.3272766676473097E-2</v>
       </c>
       <c r="S15">
@@ -22290,25 +22007,25 @@
       <c r="J16">
         <v>2031</v>
       </c>
-      <c r="K16" s="28">
+      <c r="K16" s="26">
         <v>1.5209125475285199</v>
       </c>
-      <c r="L16" s="28">
+      <c r="L16" s="26">
         <v>0.123714242134351</v>
       </c>
-      <c r="M16" s="28">
+      <c r="M16" s="26">
         <v>1.8191575713955401E-3</v>
       </c>
-      <c r="N16" s="28">
+      <c r="N16" s="26">
         <v>8.4168978314876994E-3</v>
       </c>
-      <c r="O16" s="28">
+      <c r="O16" s="26">
         <v>0.120748721386401</v>
       </c>
-      <c r="P16" s="28">
+      <c r="P16" s="26">
         <v>6.2900949467507902E-3</v>
       </c>
-      <c r="Q16" s="28">
+      <c r="Q16" s="26">
         <v>4.5621736123537003E-2</v>
       </c>
       <c r="S16">
@@ -22364,25 +22081,25 @@
       <c r="J17">
         <v>2032</v>
       </c>
-      <c r="K17" s="28">
+      <c r="K17" s="26">
         <v>1.51515151515152</v>
       </c>
-      <c r="L17" s="28">
+      <c r="L17" s="26">
         <v>0.117829052874953</v>
       </c>
-      <c r="M17" s="28">
+      <c r="M17" s="26">
         <v>1.7451626083910599E-3</v>
       </c>
-      <c r="N17" s="28">
+      <c r="N17" s="26">
         <v>8.4906068763099599E-3</v>
       </c>
-      <c r="O17" s="28">
+      <c r="O17" s="26">
         <v>0.11546158946168</v>
       </c>
-      <c r="P17" s="28">
+      <c r="P17" s="26">
         <v>6.1608241472001597E-3</v>
       </c>
-      <c r="Q17" s="28">
+      <c r="Q17" s="26">
         <v>4.7591441795155502E-2</v>
       </c>
       <c r="S17">
@@ -22438,25 +22155,25 @@
       <c r="J18">
         <v>2033</v>
       </c>
-      <c r="K18" s="28">
+      <c r="K18" s="26">
         <v>1.5094339622641499</v>
       </c>
-      <c r="L18" s="28">
+      <c r="L18" s="26">
         <v>0.11183096533829601</v>
       </c>
-      <c r="M18" s="28">
+      <c r="M18" s="26">
         <v>1.6658750792015399E-3</v>
       </c>
-      <c r="N18" s="28">
+      <c r="N18" s="26">
         <v>8.4985006781159098E-3</v>
       </c>
-      <c r="O18" s="28">
+      <c r="O18" s="26">
         <v>0.11059734889834801</v>
       </c>
-      <c r="P18" s="28">
+      <c r="P18" s="26">
         <v>6.04006687723419E-3</v>
       </c>
-      <c r="Q18" s="28">
+      <c r="Q18" s="26">
         <v>4.9359298117885197E-2</v>
       </c>
       <c r="S18">
@@ -22512,25 +22229,25 @@
       <c r="J19">
         <v>2034</v>
       </c>
-      <c r="K19" s="28">
+      <c r="K19" s="26">
         <v>1.5037593984962401</v>
       </c>
-      <c r="L19" s="28">
+      <c r="L19" s="26">
         <v>0.105962565492141</v>
       </c>
-      <c r="M19" s="28">
+      <c r="M19" s="26">
         <v>1.58580784268994E-3</v>
       </c>
-      <c r="N19" s="28">
+      <c r="N19" s="26">
         <v>8.4599967283321403E-3</v>
       </c>
-      <c r="O19" s="28">
+      <c r="O19" s="26">
         <v>0.106118527646779</v>
       </c>
-      <c r="P19" s="28">
+      <c r="P19" s="26">
         <v>5.9271885894061401E-3</v>
       </c>
-      <c r="Q19" s="28">
+      <c r="Q19" s="26">
         <v>5.0951036363681999E-2</v>
       </c>
       <c r="S19">
@@ -22586,25 +22303,25 @@
       <c r="J20">
         <v>2035</v>
       </c>
-      <c r="K20" s="28">
+      <c r="K20" s="26">
         <v>1.4981273408239699</v>
       </c>
-      <c r="L20" s="28">
+      <c r="L20" s="26">
         <v>0.10034703305880099</v>
       </c>
-      <c r="M20" s="28">
+      <c r="M20" s="26">
         <v>1.50746900563374E-3</v>
       </c>
-      <c r="N20" s="28">
+      <c r="N20" s="26">
         <v>8.3878609602026696E-3</v>
       </c>
-      <c r="O20" s="28">
+      <c r="O20" s="26">
         <v>0.10198195436947</v>
       </c>
-      <c r="P20" s="28">
+      <c r="P20" s="26">
         <v>5.8212879672758303E-3</v>
       </c>
-      <c r="Q20" s="28">
+      <c r="Q20" s="26">
         <v>5.2386390368990503E-2</v>
       </c>
       <c r="S20">
@@ -22660,25 +22377,25 @@
       <c r="J21">
         <v>2036</v>
       </c>
-      <c r="K21" s="28">
+      <c r="K21" s="26">
         <v>1.4925373134328399</v>
       </c>
-      <c r="L21" s="28">
+      <c r="L21" s="26">
         <v>9.5087710611277201E-2</v>
       </c>
-      <c r="M21" s="28">
+      <c r="M21" s="26">
         <v>1.4329425530842899E-3</v>
       </c>
-      <c r="N21" s="28">
+      <c r="N21" s="26">
         <v>8.2975341693342607E-3</v>
       </c>
-      <c r="O21" s="28">
+      <c r="O21" s="26">
         <v>9.8153793036413597E-2</v>
       </c>
-      <c r="P21" s="28">
+      <c r="P21" s="26">
         <v>5.72168887572204E-3</v>
       </c>
-      <c r="Q21" s="28">
+      <c r="Q21" s="26">
         <v>5.3683070541190502E-2</v>
       </c>
       <c r="S21">
@@ -22734,25 +22451,25 @@
       <c r="J22">
         <v>2037</v>
       </c>
-      <c r="K22" s="28">
+      <c r="K22" s="26">
         <v>1.4869888475836399</v>
       </c>
-      <c r="L22" s="28">
+      <c r="L22" s="26">
         <v>9.0179459859709502E-2</v>
       </c>
-      <c r="M22" s="28">
+      <c r="M22" s="26">
         <v>1.36250619094848E-3</v>
       </c>
-      <c r="N22" s="28">
+      <c r="N22" s="26">
         <v>8.1923006347376995E-3</v>
       </c>
-      <c r="O22" s="28">
+      <c r="O22" s="26">
         <v>9.4600630781469894E-2</v>
       </c>
-      <c r="P22" s="28">
+      <c r="P22" s="26">
         <v>5.62777122017324E-3</v>
       </c>
-      <c r="Q22" s="28">
+      <c r="Q22" s="26">
         <v>5.4856071010260597E-2</v>
       </c>
       <c r="S22">
@@ -22808,25 +22525,25 @@
       <c r="J23">
         <v>2038</v>
       </c>
-      <c r="K23" s="28">
+      <c r="K23" s="26">
         <v>1.4814814814814801</v>
       </c>
-      <c r="L23" s="28">
+      <c r="L23" s="26">
         <v>8.5646724842962402E-2</v>
       </c>
-      <c r="M23" s="28">
+      <c r="M23" s="26">
         <v>1.2968285186139E-3</v>
       </c>
-      <c r="N23" s="28">
+      <c r="N23" s="26">
         <v>8.0810757270492802E-3</v>
       </c>
-      <c r="O23" s="28">
+      <c r="O23" s="26">
         <v>9.1291486825000406E-2</v>
       </c>
-      <c r="P23" s="28">
+      <c r="P23" s="26">
         <v>5.5387766360116804E-3</v>
       </c>
-      <c r="Q23" s="28">
+      <c r="Q23" s="26">
         <v>5.5916245549344698E-2</v>
       </c>
       <c r="S23">
@@ -22882,25 +22599,25 @@
       <c r="J24">
         <v>2039</v>
       </c>
-      <c r="K24" s="28">
+      <c r="K24" s="26">
         <v>1.4760147601475999</v>
       </c>
-      <c r="L24" s="28">
+      <c r="L24" s="26">
         <v>8.1413792503496396E-2</v>
       </c>
-      <c r="M24" s="28">
+      <c r="M24" s="26">
         <v>1.23494415957521E-3</v>
       </c>
-      <c r="N24" s="28">
+      <c r="N24" s="26">
         <v>7.9579511920826202E-3</v>
       </c>
-      <c r="O24" s="28">
+      <c r="O24" s="26">
         <v>8.8196353190537605E-2</v>
       </c>
-      <c r="P24" s="28">
+      <c r="P24" s="26">
         <v>5.4542022228740101E-3</v>
       </c>
-      <c r="Q24" s="28">
+      <c r="Q24" s="26">
         <v>5.6874352313669399E-2</v>
       </c>
       <c r="S24">
@@ -22956,25 +22673,25 @@
       <c r="J25">
         <v>2040</v>
       </c>
-      <c r="K25" s="28">
+      <c r="K25" s="26">
         <v>1.47058823529412</v>
       </c>
-      <c r="L25" s="28">
+      <c r="L25" s="26">
         <v>7.7504895065254195E-2</v>
       </c>
-      <c r="M25" s="28">
+      <c r="M25" s="26">
         <v>1.1774085684309601E-3</v>
       </c>
-      <c r="N25" s="28">
+      <c r="N25" s="26">
         <v>7.8324296443339197E-3</v>
       </c>
-      <c r="O25" s="28">
+      <c r="O25" s="26">
         <v>8.5309620246655102E-2</v>
       </c>
-      <c r="P25" s="28">
+      <c r="P25" s="26">
         <v>5.3738604397913598E-3</v>
       </c>
-      <c r="Q25" s="28">
+      <c r="Q25" s="26">
         <v>5.7742393346797899E-2</v>
       </c>
       <c r="S25">
@@ -23030,25 +22747,25 @@
       <c r="J26">
         <v>2041</v>
       </c>
-      <c r="K26" s="28">
+      <c r="K26" s="26">
         <v>1.46520146520147</v>
       </c>
-      <c r="L26" s="28">
+      <c r="L26" s="26">
         <v>7.2496081435222806E-2</v>
       </c>
-      <c r="M26" s="28">
+      <c r="M26" s="26">
         <v>1.1021126806292499E-3</v>
       </c>
-      <c r="N26" s="28">
+      <c r="N26" s="26">
         <v>7.4618768890925497E-3</v>
       </c>
-      <c r="O26" s="28">
+      <c r="O26" s="26">
         <v>8.4050404438270401E-2</v>
       </c>
-      <c r="P26" s="28">
+      <c r="P26" s="26">
         <v>5.2493778410325001E-3</v>
       </c>
-      <c r="Q26" s="28">
+      <c r="Q26" s="26">
         <v>5.7329468160313202E-2</v>
       </c>
       <c r="S26">
@@ -23104,25 +22821,25 @@
       <c r="J27">
         <v>2042</v>
       </c>
-      <c r="K27" s="28">
+      <c r="K27" s="26">
         <v>1.4598540145985399</v>
       </c>
-      <c r="L27" s="28">
+      <c r="L27" s="26">
         <v>6.8010226581141503E-2</v>
       </c>
-      <c r="M27" s="28">
+      <c r="M27" s="26">
         <v>1.03416427759033E-3</v>
       </c>
-      <c r="N27" s="28">
+      <c r="N27" s="26">
         <v>7.1142362702953403E-3</v>
       </c>
-      <c r="O27" s="28">
+      <c r="O27" s="26">
         <v>8.3512781616753504E-2</v>
       </c>
-      <c r="P27" s="28">
+      <c r="P27" s="26">
         <v>5.1478655235199997E-3</v>
       </c>
-      <c r="Q27" s="28">
+      <c r="Q27" s="26">
         <v>5.7094184718597701E-2</v>
       </c>
       <c r="S27">
@@ -23178,25 +22895,25 @@
       <c r="J28">
         <v>2043</v>
       </c>
-      <c r="K28" s="28">
+      <c r="K28" s="26">
         <v>1.4545454545454599</v>
       </c>
-      <c r="L28" s="28">
+      <c r="L28" s="26">
         <v>6.4085318163351807E-2</v>
       </c>
-      <c r="M28" s="28">
+      <c r="M28" s="26">
         <v>9.7436663600990398E-4</v>
       </c>
-      <c r="N28" s="28">
+      <c r="N28" s="26">
         <v>6.80818833197132E-3</v>
       </c>
-      <c r="O28" s="28">
+      <c r="O28" s="26">
         <v>8.3079111276160994E-2</v>
       </c>
-      <c r="P28" s="28">
+      <c r="P28" s="26">
         <v>5.0533512562878202E-3</v>
       </c>
-      <c r="Q28" s="28">
+      <c r="Q28" s="26">
         <v>5.6880963466322099E-2</v>
       </c>
       <c r="S28">
@@ -23252,25 +22969,25 @@
       <c r="J29">
         <v>2044</v>
       </c>
-      <c r="K29" s="28">
+      <c r="K29" s="26">
         <v>1.4492753623188399</v>
       </c>
-      <c r="L29" s="28">
+      <c r="L29" s="26">
         <v>6.0573776857284399E-2</v>
       </c>
-      <c r="M29" s="28">
+      <c r="M29" s="26">
         <v>9.2058471351652604E-4</v>
       </c>
-      <c r="N29" s="28">
+      <c r="N29" s="26">
         <v>6.5282154333704398E-3</v>
       </c>
-      <c r="O29" s="28">
+      <c r="O29" s="26">
         <v>8.2640285545970096E-2</v>
       </c>
-      <c r="P29" s="28">
+      <c r="P29" s="26">
         <v>4.96267911331311E-3</v>
       </c>
-      <c r="Q29" s="28">
+      <c r="Q29" s="26">
         <v>5.66598258835605E-2</v>
       </c>
       <c r="S29">
@@ -23326,25 +23043,25 @@
       <c r="J30">
         <v>2045</v>
       </c>
-      <c r="K30" s="28">
+      <c r="K30" s="26">
         <v>1.44404332129964</v>
       </c>
-      <c r="L30" s="28">
+      <c r="L30" s="26">
         <v>5.75181506382983E-2</v>
       </c>
-      <c r="M30" s="28">
+      <c r="M30" s="26">
         <v>8.7349924391617103E-4</v>
       </c>
-      <c r="N30" s="28">
+      <c r="N30" s="26">
         <v>6.2886972855523502E-3</v>
       </c>
-      <c r="O30" s="28">
+      <c r="O30" s="26">
         <v>8.2225618474116594E-2</v>
       </c>
-      <c r="P30" s="28">
+      <c r="P30" s="26">
         <v>4.8759814363439902E-3</v>
       </c>
-      <c r="Q30" s="28">
+      <c r="Q30" s="26">
         <v>5.6435975377723699E-2</v>
       </c>
       <c r="S30">
@@ -23400,25 +23117,25 @@
       <c r="J31">
         <v>2046</v>
       </c>
-      <c r="K31" s="28">
+      <c r="K31" s="26">
         <v>1.43884892086331</v>
       </c>
-      <c r="L31" s="28">
+      <c r="L31" s="26">
         <v>5.4945265504670597E-2</v>
       </c>
-      <c r="M31" s="28">
+      <c r="M31" s="26">
         <v>8.3349098072997498E-4</v>
       </c>
-      <c r="N31" s="28">
+      <c r="N31" s="26">
         <v>6.0999621665856303E-3</v>
       </c>
-      <c r="O31" s="28">
+      <c r="O31" s="26">
         <v>8.1833579280753493E-2</v>
       </c>
-      <c r="P31" s="28">
+      <c r="P31" s="26">
         <v>4.7929793955175598E-3</v>
       </c>
-      <c r="Q31" s="28">
+      <c r="Q31" s="26">
         <v>5.6209761638776098E-2</v>
       </c>
       <c r="S31">
@@ -23474,25 +23191,25 @@
       <c r="J32">
         <v>2047</v>
       </c>
-      <c r="K32" s="28">
+      <c r="K32" s="26">
         <v>1.4336917562724001</v>
       </c>
-      <c r="L32" s="28">
+      <c r="L32" s="26">
         <v>5.2774229141085399E-2</v>
       </c>
-      <c r="M32" s="28">
+      <c r="M32" s="26">
         <v>7.9934156243640503E-4</v>
       </c>
-      <c r="N32" s="28">
+      <c r="N32" s="26">
         <v>5.9530575568814302E-3</v>
       </c>
-      <c r="O32" s="28">
+      <c r="O32" s="26">
         <v>8.1441632997279301E-2</v>
       </c>
-      <c r="P32" s="28">
+      <c r="P32" s="26">
         <v>4.7130897403639804E-3</v>
       </c>
-      <c r="Q32" s="28">
+      <c r="Q32" s="26">
         <v>5.59776263091952E-2</v>
       </c>
       <c r="S32">
@@ -23548,25 +23265,25 @@
       <c r="J33">
         <v>2048</v>
       </c>
-      <c r="K33" s="28">
+      <c r="K33" s="26">
         <v>1.4285714285714299</v>
       </c>
-      <c r="L33" s="28">
+      <c r="L33" s="26">
         <v>5.0919833284130099E-2</v>
       </c>
-      <c r="M33" s="28">
+      <c r="M33" s="26">
         <v>7.6978893784837999E-4</v>
       </c>
-      <c r="N33" s="28">
+      <c r="N33" s="26">
         <v>5.8373922005548699E-3</v>
       </c>
-      <c r="O33" s="28">
+      <c r="O33" s="26">
         <v>8.1042979568677995E-2</v>
       </c>
-      <c r="P33" s="28">
+      <c r="P33" s="26">
         <v>4.6359860140872998E-3</v>
       </c>
-      <c r="Q33" s="28">
+      <c r="Q33" s="26">
         <v>5.5738560472192299E-2</v>
       </c>
       <c r="S33">
@@ -23622,25 +23339,25 @@
       <c r="J34">
         <v>2049</v>
       </c>
-      <c r="K34" s="28">
+      <c r="K34" s="26">
         <v>1.4234875444839901</v>
       </c>
-      <c r="L34" s="28">
+      <c r="L34" s="26">
         <v>4.9343392244111398E-2</v>
       </c>
-      <c r="M34" s="28">
+      <c r="M34" s="26">
         <v>7.4425169745754801E-4</v>
       </c>
-      <c r="N34" s="28">
+      <c r="N34" s="26">
         <v>5.7495438706785303E-3</v>
       </c>
-      <c r="O34" s="28">
+      <c r="O34" s="26">
         <v>8.0652460162844303E-2</v>
       </c>
-      <c r="P34" s="28">
+      <c r="P34" s="26">
         <v>4.5617582109243899E-3</v>
       </c>
-      <c r="Q34" s="28">
+      <c r="Q34" s="26">
         <v>5.54962401977971E-2</v>
       </c>
       <c r="S34">
@@ -23696,25 +23413,25 @@
       <c r="J35">
         <v>2050</v>
       </c>
-      <c r="K35" s="28">
+      <c r="K35" s="26">
         <v>1.4184397163120599</v>
       </c>
-      <c r="L35" s="28">
+      <c r="L35" s="26">
         <v>4.87527471211869E-2</v>
       </c>
-      <c r="M35" s="28">
+      <c r="M35" s="26">
         <v>7.3257842455328099E-4</v>
       </c>
-      <c r="N35" s="28">
+      <c r="N35" s="26">
         <v>5.81235957213516E-3</v>
       </c>
-      <c r="O35" s="28">
+      <c r="O35" s="26">
         <v>8.0909942196597903E-2</v>
       </c>
-      <c r="P35" s="28">
+      <c r="P35" s="26">
         <v>4.5054234448459896E-3</v>
       </c>
-      <c r="Q35" s="28">
+      <c r="Q35" s="26">
         <v>5.5435871559210301E-2</v>
       </c>
       <c r="S35">
@@ -23744,30 +23461,30 @@
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B38" s="3" t="s">
-        <v>174</v>
+        <v>145</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>175</v>
+        <v>146</v>
       </c>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>159</v>
+        <v>130</v>
       </c>
       <c r="C39" t="s">
-        <v>160</v>
+        <v>131</v>
       </c>
       <c r="D39" t="s">
-        <v>161</v>
+        <v>132</v>
       </c>
       <c r="F39" t="s">
-        <v>159</v>
+        <v>130</v>
       </c>
       <c r="G39" t="s">
-        <v>160</v>
+        <v>131</v>
       </c>
       <c r="H39" t="s">
-        <v>161</v>
+        <v>132</v>
       </c>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.25">
@@ -23801,7 +23518,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42CA302F-40F5-4B36-96BA-CE5F4FE75E90}">
   <dimension ref="A1:H153"/>
   <sheetViews>
@@ -23815,43 +23532,43 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.5703125" style="16" customWidth="1"/>
+    <col min="8" max="8" width="3.5703125" style="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
+      <c r="A1" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>152</v>
+        <v>123</v>
       </c>
       <c r="B2" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="C2" t="s">
-        <v>154</v>
+        <v>125</v>
       </c>
       <c r="D2" t="s">
-        <v>155</v>
+        <v>126</v>
       </c>
       <c r="E2" t="s">
-        <v>156</v>
+        <v>127</v>
       </c>
       <c r="F2" t="s">
-        <v>157</v>
+        <v>128</v>
       </c>
       <c r="G2" t="s">
-        <v>158</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -24353,7 +24070,7 @@
       <c r="E24">
         <v>0</v>
       </c>
-      <c r="F24" s="17">
+      <c r="F24" s="15">
         <v>7.7088317585226595E-5</v>
       </c>
       <c r="G24">
@@ -25155,7 +24872,7 @@
       <c r="D59">
         <v>0</v>
       </c>
-      <c r="E59" s="17">
+      <c r="E59" s="15">
         <v>3.6442643711024101E-5</v>
       </c>
       <c r="F59">
@@ -25175,7 +24892,7 @@
       <c r="C60">
         <v>2.0382183594058998</v>
       </c>
-      <c r="D60" s="17">
+      <c r="D60" s="15">
         <v>1.6744718850621899E-7</v>
       </c>
       <c r="E60">
@@ -25198,7 +24915,7 @@
       <c r="C61">
         <v>1.9931693808037101</v>
       </c>
-      <c r="D61" s="17">
+      <c r="D61" s="15">
         <v>1.15210142017505E-6</v>
       </c>
       <c r="E61">
@@ -25221,7 +24938,7 @@
       <c r="C62">
         <v>2.0460535185417998</v>
       </c>
-      <c r="D62" s="17">
+      <c r="D62" s="15">
         <v>1.45577824688132E-6</v>
       </c>
       <c r="E62">
@@ -25244,7 +24961,7 @@
       <c r="C63">
         <v>2.0550846763072901</v>
       </c>
-      <c r="D63" s="17">
+      <c r="D63" s="15">
         <v>4.6178015904147396E-6</v>
       </c>
       <c r="E63">
@@ -25267,7 +24984,7 @@
       <c r="C64">
         <v>2.0632883545049201</v>
       </c>
-      <c r="D64" s="17">
+      <c r="D64" s="15">
         <v>5.36502618407901E-6</v>
       </c>
       <c r="E64">
@@ -25290,7 +25007,7 @@
       <c r="C65">
         <v>2.0895195811392999</v>
       </c>
-      <c r="D65" s="17">
+      <c r="D65" s="15">
         <v>9.5507862080868302E-6</v>
       </c>
       <c r="E65">
@@ -25313,7 +25030,7 @@
       <c r="C66">
         <v>2.1098304462453701</v>
       </c>
-      <c r="D66" s="17">
+      <c r="D66" s="15">
         <v>1.21939193164839E-5</v>
       </c>
       <c r="E66">
@@ -25336,7 +25053,7 @@
       <c r="C67">
         <v>2.1518663886565901</v>
       </c>
-      <c r="D67" s="17">
+      <c r="D67" s="15">
         <v>1.93502161849205E-5</v>
       </c>
       <c r="E67">
@@ -25359,7 +25076,7 @@
       <c r="C68">
         <v>2.1326654313986602</v>
       </c>
-      <c r="D68" s="17">
+      <c r="D68" s="15">
         <v>2.55367249756282E-5</v>
       </c>
       <c r="E68">
@@ -25382,7 +25099,7 @@
       <c r="C69">
         <v>2.12970710914832</v>
       </c>
-      <c r="D69" s="17">
+      <c r="D69" s="15">
         <v>3.4827251113838901E-5</v>
       </c>
       <c r="E69">
@@ -25405,7 +25122,7 @@
       <c r="C70">
         <v>2.1602705030877498</v>
       </c>
-      <c r="D70" s="17">
+      <c r="D70" s="15">
         <v>3.5257904873024598E-5</v>
       </c>
       <c r="E70">
@@ -25428,7 +25145,7 @@
       <c r="C71">
         <v>2.1823514832447599</v>
       </c>
-      <c r="D71" s="17">
+      <c r="D71" s="15">
         <v>5.5283193436092799E-5</v>
       </c>
       <c r="E71">
@@ -25451,7 +25168,7 @@
       <c r="C72">
         <v>2.2049199498626701</v>
       </c>
-      <c r="D72" s="17">
+      <c r="D72" s="15">
         <v>6.6909702044064002E-5</v>
       </c>
       <c r="E72">
@@ -25474,7 +25191,7 @@
       <c r="C73">
         <v>2.2223157035390901</v>
       </c>
-      <c r="D73" s="17">
+      <c r="D73" s="15">
         <v>6.8055666624227497E-5</v>
       </c>
       <c r="E73">
@@ -25497,7 +25214,7 @@
       <c r="C74">
         <v>2.2324107197768601</v>
       </c>
-      <c r="D74" s="17">
+      <c r="D74" s="15">
         <v>6.8222660716369798E-5</v>
       </c>
       <c r="E74">
@@ -25566,7 +25283,7 @@
       <c r="C77">
         <v>2.1966500090309</v>
       </c>
-      <c r="D77" s="17">
+      <c r="D77" s="15">
         <v>9.3209775270094793E-5</v>
       </c>
       <c r="E77">
@@ -25589,7 +25306,7 @@
       <c r="C78">
         <v>2.1574938141140398</v>
       </c>
-      <c r="D78" s="17">
+      <c r="D78" s="15">
         <v>8.5499155321368901E-5</v>
       </c>
       <c r="E78">
@@ -27431,16 +27148,17 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Hoja3"/>
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33:XFD33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.5703125" style="3" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" style="32" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -27450,429 +27168,441 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="33" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3"/>
+      <c r="C2" s="32" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3"/>
+      <c r="C3" s="32" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="32" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="3"/>
+      <c r="C6" s="32" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="3"/>
+      <c r="C7" s="32" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>134</v>
+        <v>45</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>89</v>
+        <v>46</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="B12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>93</v>
+        <v>211</v>
       </c>
       <c r="B13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="B14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="B15" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="B16" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="3"/>
+      <c r="C16" s="32" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="B17" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="3"/>
+      <c r="C17" s="32" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="B18" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="3"/>
+      <c r="C18" s="32" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="B19" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="3"/>
+      <c r="C19" s="32" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="B20" t="s">
-        <v>2</v>
-      </c>
-      <c r="C20" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="C20" s="32" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="B21" t="s">
-        <v>2</v>
-      </c>
-      <c r="C21" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="C21" s="32" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="B22" t="s">
-        <v>2</v>
-      </c>
-      <c r="C22" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="C22" s="32" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="B23" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="3"/>
+      <c r="C23" s="32" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="B24" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="3"/>
+      <c r="C24" s="32" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="B25" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="3"/>
+      <c r="C25" s="32" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>102</v>
+        <v>48</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="C26" s="32" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="B27" t="s">
-        <v>2</v>
-      </c>
-      <c r="C27" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="C27" s="32" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B28" t="s">
         <v>3</v>
       </c>
-      <c r="C28" s="3"/>
+      <c r="C28" s="32" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
-      </c>
-      <c r="C29" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="C29" s="32" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B30" t="s">
         <v>3</v>
       </c>
-      <c r="C30" s="3"/>
+      <c r="C30" s="32" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B31" t="s">
-        <v>2</v>
-      </c>
-      <c r="C31" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="C31" s="32" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B32" t="s">
-        <v>2</v>
-      </c>
-      <c r="C32" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="C32" s="32" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="B33" t="s">
         <v>4</v>
       </c>
-      <c r="C33" s="3"/>
+      <c r="C33" s="32" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B34" t="s">
-        <v>3</v>
-      </c>
-      <c r="C34" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="C34" s="32" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>111</v>
+      <c r="A35" s="11" t="s">
+        <v>90</v>
       </c>
       <c r="B35" t="s">
-        <v>3</v>
-      </c>
-      <c r="C35" s="3"/>
+        <v>27</v>
+      </c>
+      <c r="C35" s="32" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="B36" t="s">
-        <v>2</v>
-      </c>
-      <c r="C36" s="3"/>
+        <v>27</v>
+      </c>
+      <c r="C36" s="32" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="B37" t="s">
-        <v>3</v>
-      </c>
-      <c r="C37" s="3"/>
+        <v>27</v>
+      </c>
+      <c r="C37" s="32" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>105</v>
+      </c>
+      <c r="B38" t="s">
+        <v>27</v>
+      </c>
+      <c r="C38" s="32" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="B38" t="s">
-        <v>2</v>
-      </c>
-      <c r="C38" s="3"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="B39" t="s">
+        <v>27</v>
+      </c>
+      <c r="C39" s="32" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="B39" t="s">
-        <v>2</v>
-      </c>
-      <c r="C39" s="3"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>116</v>
-      </c>
       <c r="B40" t="s">
-        <v>3</v>
-      </c>
-      <c r="C40" s="3"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>117</v>
-      </c>
-      <c r="B41" t="s">
-        <v>4</v>
-      </c>
-      <c r="C41" s="3"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>118</v>
-      </c>
-      <c r="B42" t="s">
-        <v>3</v>
-      </c>
-      <c r="C42" s="3"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>119</v>
-      </c>
-      <c r="B43" t="s">
-        <v>3</v>
-      </c>
-      <c r="C43" s="3"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>120</v>
-      </c>
-      <c r="B44" t="s">
         <v>27</v>
       </c>
-      <c r="C44" s="3"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>121</v>
-      </c>
-      <c r="B45" t="s">
-        <v>2</v>
-      </c>
-      <c r="C45" s="3"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>88</v>
-      </c>
-      <c r="B46" t="s">
-        <v>2</v>
-      </c>
-      <c r="C46" s="3"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="B47" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="B48" t="s">
-        <v>27</v>
+      <c r="C40" s="32" t="s">
+        <v>202</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="B1:B38" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -27882,7 +27612,7 @@
           <x14:formula1>
             <xm:f>Validate!$A$2:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B46</xm:sqref>
+          <xm:sqref>B36:B38 B33:B34 B13 B2:B32</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -27893,379 +27623,339 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Hoja4"/>
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A5"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.7109375" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" customWidth="1"/>
-    <col min="7" max="7" width="10" customWidth="1"/>
-    <col min="9" max="9" width="2.140625" customWidth="1"/>
-    <col min="10" max="10" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.42578125" customWidth="1"/>
+    <col min="2" max="2" width="28.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="22.28515625" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="8" max="8" width="2.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>36</v>
       </c>
-      <c r="B2" t="s">
-        <v>39</v>
+      <c r="B2" s="3" t="s">
+        <v>107</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>48</v>
+        <v>42</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="3"/>
+        <v>155</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="I2" s="3"/>
       <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="N2" s="3"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M2" s="3"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>37</v>
       </c>
-      <c r="B3" t="s">
-        <v>40</v>
+      <c r="B3" s="3" t="s">
+        <v>164</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>129</v>
+        <v>77</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="3"/>
+        <v>156</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="I3" s="3"/>
       <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="N3" s="3"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M3" s="3"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>38</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>157</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="M4" s="3"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>158</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="M5" s="3"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="B6" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="N4" s="3"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="E6" t="s">
+        <v>160</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="M6" s="3"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>42</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B7" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="M7" s="3"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>163</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="B9" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D9" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="N5" s="3"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="E6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="N6" s="3"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="E7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="N7" s="3"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>159</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>172</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" t="s">
+        <v>166</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>171</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" t="s">
+        <v>167</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>173</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="E8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" s="3" t="s">
+      <c r="C13" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" t="s">
+        <v>168</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>174</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" t="s">
+        <v>169</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>175</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="E9" t="s">
-        <v>8</v>
-      </c>
-      <c r="H9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="E10" t="s">
-        <v>8</v>
-      </c>
-      <c r="H10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>54</v>
-      </c>
-      <c r="B11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="E11" t="s">
-        <v>8</v>
-      </c>
-      <c r="H11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>56</v>
-      </c>
-      <c r="B12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="D15" t="s">
         <v>9</v>
       </c>
-      <c r="H12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>57</v>
-      </c>
-      <c r="B13" t="s">
-        <v>60</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="E13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>58</v>
-      </c>
-      <c r="B14" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="E14" t="s">
-        <v>9</v>
-      </c>
-      <c r="H14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>141</v>
-      </c>
-      <c r="B15" t="s">
-        <v>143</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>139</v>
-      </c>
       <c r="E15" t="s">
-        <v>9</v>
-      </c>
-      <c r="H15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>142</v>
-      </c>
-      <c r="B16" t="s">
-        <v>144</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="E16" t="s">
-        <v>9</v>
-      </c>
-      <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>62</v>
-      </c>
-      <c r="B17" t="s">
-        <v>63</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="E17" t="s">
-        <v>9</v>
-      </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="N19" s="3"/>
+        <v>170</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M17" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28276,7 +27966,7 @@
           <x14:formula1>
             <xm:f>Validate!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E17</xm:sqref>
+          <xm:sqref>D2:D5 D6:D15</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -28287,19 +27977,19 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Hoja5"/>
-  <dimension ref="A1:U65"/>
+  <dimension ref="A1:U56"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B24" sqref="B24"/>
+      <selection pane="bottomRight" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="3"/>
+    <col min="1" max="1" width="8.7109375" style="38" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="38"/>
     <col min="3" max="3" width="11.85546875" style="3" customWidth="1"/>
     <col min="4" max="4" width="16.7109375" style="3" customWidth="1"/>
     <col min="5" max="5" width="14.7109375" style="3" bestFit="1" customWidth="1"/>
@@ -28310,488 +28000,472 @@
     <col min="11" max="11" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="37" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="str">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="38" t="str">
         <f>Flows!A2</f>
         <v>A1</v>
       </c>
-      <c r="B2" s="5">
-        <f>EXERGIAS!F2+EXERGIAS!J2</f>
-        <v>252562.53603437013</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="str">
+      <c r="B2" s="39">
+        <v>14241.934359413817</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="38" t="str">
         <f>Flows!A3</f>
         <v>A2</v>
       </c>
-      <c r="B3" s="5">
-        <f>EXERGIAS!F3+EXERGIAS!J3</f>
-        <v>3111.2437944921585</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="str">
+      <c r="B3" s="39">
+        <v>991.59999999999991</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="B4" s="39">
+        <v>25</v>
+      </c>
+      <c r="D4" s="31"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="38" t="str">
+        <f>Flows!A14</f>
+        <v>AB</v>
+      </c>
+      <c r="B5" s="39">
+        <v>14241.934359413817</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="38" t="str">
         <f>Flows!A4</f>
-        <v>AB</v>
-      </c>
-      <c r="B4" s="5">
-        <f>EXERGIAS!F4+EXERGIAS!J4</f>
-        <v>252562.53603437013</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="str">
+        <v>B1</v>
+      </c>
+      <c r="B6" s="39">
+        <v>1890.8298403574672</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="38" t="str">
         <f>Flows!A5</f>
-        <v>B1</v>
-      </c>
-      <c r="B5" s="5">
-        <f>EXERGIAS!F5+EXERGIAS!J5</f>
-        <v>3899.1669098794127</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="str">
+        <v>B4</v>
+      </c>
+      <c r="B7" s="39">
+        <v>3062</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="38" t="str">
+        <f>Flows!A15</f>
+        <v>JB</v>
+      </c>
+      <c r="B8" s="39">
+        <v>1.4235444931748558</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="38" t="str">
+        <f>Flows!A16</f>
+        <v>CB</v>
+      </c>
+      <c r="B9" s="39">
+        <v>9840.4840246196309</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="38" t="str">
+        <f>Flows!A17</f>
+        <v>B3</v>
+      </c>
+      <c r="B10" s="39">
+        <v>8394.5886046602463</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="38" t="str">
+        <f>Flows!A36</f>
+        <v>B31</v>
+      </c>
+      <c r="B11" s="39">
+        <v>8394.5886046602463</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="38" t="str">
+        <f>Flows!A18</f>
+        <v>BC</v>
+      </c>
+      <c r="B12" s="39">
+        <v>18185.735365278386</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="38" t="str">
+        <f>Flows!A19</f>
+        <v>BG</v>
+      </c>
+      <c r="B13" s="39">
+        <v>878.57082174977631</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="38" t="str">
         <f>Flows!A6</f>
-        <v>B2</v>
-      </c>
-      <c r="B6" s="5">
-        <f>EXERGIAS!F6+EXERGIAS!J6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="str">
+        <v>C1</v>
+      </c>
+      <c r="B14" s="39">
+        <v>1718.936218506788</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="38" t="str">
         <f>Flows!A7</f>
-        <v>B4</v>
-      </c>
-      <c r="B7" s="5">
-        <f>EXERGIAS!F7+EXERGIAS!J7</f>
-        <v>9607.3300713341978</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="str">
+        <v>C2</v>
+      </c>
+      <c r="B15" s="39">
+        <v>2879.464294902607</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="38" t="str">
+        <f>Flows!A20</f>
+        <v>JC</v>
+      </c>
+      <c r="B16" s="39">
+        <v>59.992232212368918</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="38" t="str">
+        <f>Flows!A21</f>
+        <v>DC</v>
+      </c>
+      <c r="B17" s="39">
+        <v>2535.9583372136931</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="38" t="str">
+        <f>Flows!A22</f>
+        <v>CD</v>
+      </c>
+      <c r="B18" s="39">
+        <v>12039.774126330791</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="38" t="str">
+        <f>Flows!A23</f>
+        <v>CI</v>
+      </c>
+      <c r="B19" s="39">
+        <v>785.90813378752296</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="38" t="str">
         <f>Flows!A8</f>
-        <v>JB</v>
-      </c>
-      <c r="B8" s="5">
-        <f>EXERGIAS!F8+EXERGIAS!J8</f>
-        <v>1.4235444931748558</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="str">
+        <v>D1</v>
+      </c>
+      <c r="B20" s="39">
+        <v>5403.6723560340815</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="38" t="str">
         <f>Flows!A9</f>
-        <v>CB</v>
-      </c>
-      <c r="B9" s="5">
-        <f>EXERGIAS!F9+EXERGIAS!J9</f>
-        <v>164525.45580698136</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="str">
+        <v>D2</v>
+      </c>
+      <c r="B21" s="39">
+        <v>1548.8325323083409</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="38" t="str">
+        <f>Flows!A24</f>
+        <v>FD</v>
+      </c>
+      <c r="B22" s="39">
+        <v>1362.9206090647876</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="38" t="str">
+        <f>Flows!A25</f>
+        <v>DE</v>
+      </c>
+      <c r="B23" s="39">
+        <v>12982.32962594773</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="38" t="str">
+        <f>Flows!A26</f>
+        <v>D4</v>
+      </c>
+      <c r="B24" s="39">
+        <v>2752.5720128396733</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="38" t="str">
+        <f>Flows!A37</f>
+        <v>D41</v>
+      </c>
+      <c r="B25" s="39">
+        <v>2752.5720128396733</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="38" t="str">
+        <f>Flows!A27</f>
+        <v>EF</v>
+      </c>
+      <c r="B26" s="39">
+        <v>10444.367747523967</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="38" t="str">
         <f>Flows!A10</f>
-        <v>B3</v>
-      </c>
-      <c r="B10" s="5">
-        <f>EXERGIAS!F10+EXERGIAS!J10</f>
-        <v>101441.86646977678</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="str">
+        <v>F1</v>
+      </c>
+      <c r="B27" s="39">
+        <v>5053.42276266919</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="38" t="str">
         <f>Flows!A11</f>
-        <v>B31</v>
-      </c>
-      <c r="B11" s="5">
-        <f>EXERGIAS!F11+EXERGIAS!J11</f>
-        <v>101441.86646977678</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="str">
-        <f>Flows!A12</f>
-        <v>BC</v>
-      </c>
-      <c r="B12" s="5">
-        <f>EXERGIAS!F12+EXERGIAS!J12</f>
-        <v>314942.74756792578</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="str">
-        <f>Flows!A13</f>
-        <v>BG</v>
-      </c>
-      <c r="B13" s="5">
-        <f>EXERGIAS!F13+EXERGIAS!J13</f>
-        <v>4197.3614404056643</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="str">
-        <f>Flows!A14</f>
-        <v>C1</v>
-      </c>
-      <c r="B14" s="5">
-        <f>EXERGIAS!F14+EXERGIAS!J14</f>
-        <v>3544.6971907994657</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="str">
-        <f>Flows!A15</f>
-        <v>C2</v>
-      </c>
-      <c r="B15" s="5">
-        <f>EXERGIAS!F15+EXERGIAS!J15</f>
-        <v>31847.114123905325</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="str">
-        <f>Flows!A16</f>
-        <v>JC</v>
-      </c>
-      <c r="B16" s="5">
-        <f>EXERGIAS!F16+EXERGIAS!J16</f>
-        <v>59.992232212368918</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="str">
-        <f>Flows!A17</f>
-        <v>DC</v>
-      </c>
-      <c r="B17" s="5">
-        <f>EXERGIAS!F17+EXERGIAS!J17</f>
-        <v>34254.460445353347</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="str">
-        <f>Flows!A18</f>
-        <v>CD</v>
-      </c>
-      <c r="B18" s="5">
-        <f>EXERGIAS!F18+EXERGIAS!J18</f>
-        <v>213876.56907492247</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="str">
-        <f>Flows!A19</f>
-        <v>CI</v>
-      </c>
-      <c r="B19" s="9">
-        <f>EXERGIAS!F19+EXERGIAS!J19</f>
-        <v>1814.1264250627194</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="str">
-        <f>Flows!A20</f>
-        <v>D1</v>
-      </c>
-      <c r="B20" s="5">
-        <f>EXERGIAS!F20+EXERGIAS!J20</f>
-        <v>10807.344712068163</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="str">
-        <f>Flows!A21</f>
-        <v>D2</v>
-      </c>
-      <c r="B21" s="5">
-        <f>EXERGIAS!F21+EXERGIAS!J21</f>
-        <v>20626.852357437743</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="str">
-        <f>Flows!A22</f>
-        <v>D3</v>
-      </c>
-      <c r="B22" s="5">
-        <f>EXERGIAS!F22+EXERGIAS!J22</f>
-        <v>102.13135240801148</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="str">
-        <f>Flows!A23</f>
-        <v>FD</v>
-      </c>
-      <c r="B23" s="5">
-        <f>EXERGIAS!F23+EXERGIAS!J23</f>
-        <v>29748.939269848452</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="str">
-        <f>Flows!A24</f>
-        <v>DE</v>
-      </c>
-      <c r="B24" s="5">
-        <f>EXERGIAS!F24+EXERGIAS!J24</f>
-        <v>230608.47686772561</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="str">
-        <f>Flows!A25</f>
-        <v>D4</v>
-      </c>
-      <c r="B25" s="5">
-        <f>EXERGIAS!F25+EXERGIAS!J25</f>
-        <v>3268.2507535085106</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="str">
-        <f>Flows!A26</f>
-        <v>D41</v>
-      </c>
-      <c r="B26" s="5">
-        <f>EXERGIAS!F26+EXERGIAS!J26</f>
-        <v>3268.2507535085106</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="str">
-        <f>Flows!A27</f>
-        <v>E1</v>
-      </c>
-      <c r="B27" s="5">
-        <f>EXERGIAS!F27+EXERGIAS!J27</f>
-        <v>66.828444751058441</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="str">
-        <f>Flows!A28</f>
-        <v>E2</v>
-      </c>
-      <c r="B28" s="5">
-        <f>EXERGIAS!F28+EXERGIAS!J28</f>
-        <v>875.67866769159002</v>
+        <v>F2</v>
+      </c>
+      <c r="B28" s="39">
+        <v>525.86684385046942</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="str">
-        <f>Flows!A29</f>
-        <v>E21</v>
-      </c>
-      <c r="B29" s="5">
-        <f>EXERGIAS!F29+EXERGIAS!J29</f>
-        <v>875.67866769159002</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="str">
-        <f>Flows!A30</f>
-        <v>EF</v>
-      </c>
-      <c r="B30" s="5">
-        <f>EXERGIAS!F30+EXERGIAS!J30</f>
-        <v>228070.51498930185</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="str">
-        <f>Flows!A31</f>
-        <v>F1</v>
-      </c>
-      <c r="B31" s="5">
-        <f>EXERGIAS!F31+EXERGIAS!J31</f>
-        <v>15855.617397438422</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="str">
-        <f>Flows!A32</f>
-        <v>F2</v>
-      </c>
-      <c r="B32" s="5">
-        <f>EXERGIAS!F32+EXERGIAS!J32</f>
-        <v>525.86684385046942</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="str">
+      <c r="A29" s="38" t="str">
         <f>Flows!A33</f>
         <v>F3</v>
       </c>
-      <c r="B33" s="5">
-        <f>EXERGIAS!F33+EXERGIAS!J33</f>
-        <v>183949.1968604404</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="str">
+      <c r="B29" s="39">
+        <v>8585.6640649510318</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="38" t="str">
+        <f>Flows!A28</f>
+        <v>F4</v>
+      </c>
+      <c r="B30" s="39">
+        <v>35.436975941074252</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="38" t="str">
+        <f>Flows!A29</f>
+        <v>F5</v>
+      </c>
+      <c r="B31" s="39">
+        <v>343.89518280353997</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="38" t="str">
+        <f>Flows!A30</f>
+        <v>GI</v>
+      </c>
+      <c r="B32" s="39">
+        <v>853.20769219335057</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A33" s="38" t="str">
         <f>Flows!A34</f>
-        <v>F4</v>
-      </c>
-      <c r="B34" s="5">
-        <f>EXERGIAS!F34+EXERGIAS!J34</f>
-        <v>5845.2033459504892</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="str">
-        <f>Flows!A35</f>
-        <v>F5</v>
-      </c>
-      <c r="B35" s="5">
-        <f>EXERGIAS!F35+EXERGIAS!J35</f>
-        <v>8417.2988834054177</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="str">
-        <f>Flows!A36</f>
-        <v>G1</v>
-      </c>
-      <c r="B36" s="5">
-        <f>EXERGIAS!F36+EXERGIAS!J36</f>
-        <v>2.6628947346653069</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="8" t="str">
-        <f>Flows!A37</f>
-        <v>GI</v>
-      </c>
-      <c r="B37" s="9">
-        <f>EXERGIAS!F37+EXERGIAS!J37</f>
-        <v>4171.9983108492379</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="str">
+        <v>I1</v>
+      </c>
+      <c r="B33" s="39">
+        <v>599.53487567633351</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A34" s="38" t="str">
+        <f>Flows!A31</f>
+        <v>I2</v>
+      </c>
+      <c r="B34" s="39">
+        <v>489.97787654361184</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A35" s="38" t="str">
+        <f>Flows!A32</f>
+        <v>I3</v>
+      </c>
+      <c r="B35" s="39">
+        <v>265.93093530155585</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A36" s="38" t="str">
         <f>Flows!A38</f>
-        <v>H1</v>
-      </c>
-      <c r="B38" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="str">
-        <f>Flows!A39</f>
-        <v>H2</v>
-      </c>
-      <c r="B39" s="5">
-        <f>EXERGIAS!F39+EXERGIAS!J39</f>
-        <v>22.096232864438974</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="8" t="str">
-        <f>Flows!A40</f>
-        <v>HI</v>
-      </c>
-      <c r="B40" s="9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="10" t="str">
-        <f>Flows!A41</f>
-        <v>I1</v>
-      </c>
-      <c r="B41" s="11">
-        <f>EXERGIAS!F41+EXERGIAS!J41</f>
-        <v>599.53487567633351</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="10" t="str">
-        <f>Flows!A42</f>
-        <v>I2</v>
-      </c>
-      <c r="B42" s="11">
-        <f>EXERGIAS!F42+EXERGIAS!J42</f>
-        <v>3808.7684951994993</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="10" t="str">
-        <f>Flows!A43</f>
-        <v>I3</v>
-      </c>
-      <c r="B43" s="11">
-        <f>EXERGIAS!F43+EXERGIAS!J43</f>
-        <v>1294.1492265767522</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="str">
-        <f>Flows!A44</f>
         <v>I31</v>
       </c>
-      <c r="B44" s="5">
-        <f>EXERGIAS!F44+EXERGIAS!J44</f>
-        <v>5102.9177217762517</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="str">
-        <f>Flows!A45</f>
-        <v>J1</v>
-      </c>
-      <c r="B45" s="5">
-        <f>EXERGIAS!F45+EXERGIAS!J45</f>
-        <v>89.122943906667459</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="str">
-        <f>Flows!A46</f>
+      <c r="B36" s="39">
+        <f>B34+B35</f>
+        <v>755.90881184516775</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A37" s="38" t="str">
+        <f>Flows!A12</f>
         <v>J2</v>
       </c>
-      <c r="B46" s="5">
-        <f>EXERGIAS!F46+EXERGIAS!J46</f>
-        <v>1368.0248152849197</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B47" s="5">
-        <f>EXERGIAS!F47+EXERGIAS!J47</f>
-        <v>5845.2033459504892</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="B48" s="5">
-        <f>EXERGIAS!F48+EXERGIAS!J48</f>
-        <v>8417.2988834054177</v>
-      </c>
+      <c r="B37" s="39">
+        <v>436.01000000000005</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A38" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="B38" s="39">
+        <v>35.436975941074252</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A39" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="B39" s="39">
+        <v>343.89518280353997</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A40" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="B40" s="39">
+        <f>B23-B26</f>
+        <v>2537.9618784237628</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="6"/>
+      <c r="M43" s="6"/>
+      <c r="N43" s="6"/>
+      <c r="O43" s="6"/>
+      <c r="P43" s="6"/>
+      <c r="Q43" s="6"/>
+      <c r="R43" s="6"/>
+      <c r="S43" s="6"/>
+      <c r="T43" s="6"/>
+      <c r="U43" s="6"/>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
+      <c r="L44" s="6"/>
+      <c r="M44" s="6"/>
+      <c r="N44" s="6"/>
+      <c r="O44" s="6"/>
+      <c r="P44" s="6"/>
+      <c r="Q44" s="6"/>
+      <c r="R44" s="6"/>
+      <c r="S44" s="6"/>
+      <c r="T44" s="6"/>
+      <c r="U44" s="6"/>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="6"/>
+      <c r="M45" s="6"/>
+      <c r="N45" s="6"/>
+      <c r="O45" s="6"/>
+      <c r="P45" s="6"/>
+      <c r="Q45" s="6"/>
+      <c r="R45" s="6"/>
+      <c r="S45" s="6"/>
+      <c r="T45" s="6"/>
+      <c r="U45" s="6"/>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="6"/>
+      <c r="L46" s="6"/>
+      <c r="M46" s="6"/>
+      <c r="N46" s="6"/>
+      <c r="O46" s="6"/>
+      <c r="P46" s="6"/>
+      <c r="Q46" s="6"/>
+      <c r="R46" s="6"/>
+      <c r="S46" s="6"/>
+      <c r="T46" s="6"/>
+      <c r="U46" s="6"/>
+    </row>
+    <row r="50" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
+      <c r="I50" s="6"/>
+      <c r="J50" s="6"/>
+      <c r="K50" s="6"/>
+      <c r="L50" s="6"/>
+      <c r="M50" s="6"/>
+      <c r="N50" s="6"/>
+      <c r="O50" s="6"/>
+      <c r="P50" s="6"/>
+      <c r="Q50" s="6"/>
+      <c r="R50" s="6"/>
+      <c r="S50" s="6"/>
+      <c r="T50" s="6"/>
+      <c r="U50" s="6"/>
+    </row>
+    <row r="51" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="L51" s="6"/>
+      <c r="M51" s="6"/>
+      <c r="N51" s="6"/>
+      <c r="O51" s="6"/>
+      <c r="P51" s="6"/>
+      <c r="Q51" s="6"/>
+      <c r="R51" s="6"/>
+      <c r="S51" s="6"/>
+      <c r="T51" s="6"/>
+      <c r="U51" s="6"/>
     </row>
     <row r="52" spans="5:21" x14ac:dyDescent="0.25">
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6"/>
-      <c r="I52" s="6"/>
-      <c r="J52" s="6"/>
-      <c r="K52" s="6"/>
       <c r="L52" s="6"/>
       <c r="M52" s="6"/>
       <c r="N52" s="6"/>
@@ -28860,124 +28534,24 @@
       <c r="T55" s="6"/>
       <c r="U55" s="6"/>
     </row>
-    <row r="59" spans="5:21" x14ac:dyDescent="0.25">
-      <c r="E59" s="6"/>
-      <c r="F59" s="6"/>
-      <c r="G59" s="6"/>
-      <c r="H59" s="6"/>
-      <c r="I59" s="6"/>
-      <c r="J59" s="6"/>
-      <c r="K59" s="6"/>
-      <c r="L59" s="6"/>
-      <c r="M59" s="6"/>
-      <c r="N59" s="6"/>
-      <c r="O59" s="6"/>
-      <c r="P59" s="6"/>
-      <c r="Q59" s="6"/>
-      <c r="R59" s="6"/>
-      <c r="S59" s="6"/>
-      <c r="T59" s="6"/>
-      <c r="U59" s="6"/>
-    </row>
-    <row r="60" spans="5:21" x14ac:dyDescent="0.25">
-      <c r="L60" s="6"/>
-      <c r="M60" s="6"/>
-      <c r="N60" s="6"/>
-      <c r="O60" s="6"/>
-      <c r="P60" s="6"/>
-      <c r="Q60" s="6"/>
-      <c r="R60" s="6"/>
-      <c r="S60" s="6"/>
-      <c r="T60" s="6"/>
-      <c r="U60" s="6"/>
-    </row>
-    <row r="61" spans="5:21" x14ac:dyDescent="0.25">
-      <c r="L61" s="6"/>
-      <c r="M61" s="6"/>
-      <c r="N61" s="6"/>
-      <c r="O61" s="6"/>
-      <c r="P61" s="6"/>
-      <c r="Q61" s="6"/>
-      <c r="R61" s="6"/>
-      <c r="S61" s="6"/>
-      <c r="T61" s="6"/>
-      <c r="U61" s="6"/>
-    </row>
-    <row r="62" spans="5:21" x14ac:dyDescent="0.25">
-      <c r="E62" s="6"/>
-      <c r="F62" s="6"/>
-      <c r="G62" s="6"/>
-      <c r="H62" s="6"/>
-      <c r="I62" s="6"/>
-      <c r="J62" s="6"/>
-      <c r="K62" s="6"/>
-      <c r="L62" s="6"/>
-      <c r="M62" s="6"/>
-      <c r="N62" s="6"/>
-      <c r="O62" s="6"/>
-      <c r="P62" s="6"/>
-      <c r="Q62" s="6"/>
-      <c r="R62" s="6"/>
-      <c r="S62" s="6"/>
-      <c r="T62" s="6"/>
-      <c r="U62" s="6"/>
-    </row>
-    <row r="63" spans="5:21" x14ac:dyDescent="0.25">
-      <c r="E63" s="6"/>
-      <c r="F63" s="6"/>
-      <c r="G63" s="6"/>
-      <c r="H63" s="6"/>
-      <c r="I63" s="6"/>
-      <c r="J63" s="6"/>
-      <c r="K63" s="6"/>
-      <c r="L63" s="6"/>
-      <c r="M63" s="6"/>
-      <c r="N63" s="6"/>
-      <c r="O63" s="6"/>
-      <c r="P63" s="6"/>
-      <c r="Q63" s="6"/>
-      <c r="R63" s="6"/>
-      <c r="S63" s="6"/>
-      <c r="T63" s="6"/>
-      <c r="U63" s="6"/>
-    </row>
-    <row r="64" spans="5:21" x14ac:dyDescent="0.25">
-      <c r="E64" s="6"/>
-      <c r="F64" s="6"/>
-      <c r="G64" s="6"/>
-      <c r="H64" s="6"/>
-      <c r="I64" s="6"/>
-      <c r="J64" s="6"/>
-      <c r="K64" s="6"/>
-      <c r="L64" s="6"/>
-      <c r="M64" s="6"/>
-      <c r="N64" s="6"/>
-      <c r="O64" s="6"/>
-      <c r="P64" s="6"/>
-      <c r="Q64" s="6"/>
-      <c r="R64" s="6"/>
-      <c r="S64" s="6"/>
-      <c r="T64" s="6"/>
-      <c r="U64" s="6"/>
-    </row>
-    <row r="65" spans="5:21" x14ac:dyDescent="0.25">
-      <c r="E65" s="6"/>
-      <c r="F65" s="6"/>
-      <c r="G65" s="6"/>
-      <c r="H65" s="6"/>
-      <c r="I65" s="6"/>
-      <c r="J65" s="6"/>
-      <c r="K65" s="6"/>
-      <c r="L65" s="6"/>
-      <c r="M65" s="6"/>
-      <c r="N65" s="6"/>
-      <c r="O65" s="6"/>
-      <c r="P65" s="6"/>
-      <c r="Q65" s="6"/>
-      <c r="R65" s="6"/>
-      <c r="S65" s="6"/>
-      <c r="T65" s="6"/>
-      <c r="U65" s="6"/>
+    <row r="56" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="6"/>
+      <c r="J56" s="6"/>
+      <c r="K56" s="6"/>
+      <c r="L56" s="6"/>
+      <c r="M56" s="6"/>
+      <c r="N56" s="6"/>
+      <c r="O56" s="6"/>
+      <c r="P56" s="6"/>
+      <c r="Q56" s="6"/>
+      <c r="R56" s="6"/>
+      <c r="S56" s="6"/>
+      <c r="T56" s="6"/>
+      <c r="U56" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28990,7 +28564,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29017,7 +28591,7 @@
         <v>13</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -29031,7 +28605,7 @@
         <v>14</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -29045,7 +28619,7 @@
         <v>15</v>
       </c>
       <c r="B4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -29059,7 +28633,7 @@
         <v>16</v>
       </c>
       <c r="B5">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -29073,7 +28647,7 @@
         <v>17</v>
       </c>
       <c r="B6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -29087,7 +28661,7 @@
         <v>18</v>
       </c>
       <c r="B7">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -29102,659 +28676,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <sheetPr codeName="Hoja7"/>
-  <dimension ref="A1:C48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5819C5C2-E2A8-4A30-8897-4CA1C9BD5C9B}">
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="11.42578125" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="str">
-        <f>Flows!A2</f>
-        <v>A1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="3">
-        <f>IF(EXERGIAS!J2=0,0,EXERGIAS!J2/EXERGIAS!J2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="str">
-        <f>Flows!A3</f>
-        <v>A2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="29">
-        <f>CosteEnergias!$B$2</f>
-        <v>2.1375996313958843</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="str">
-        <f>Flows!A4</f>
-        <v>AB</v>
-      </c>
-      <c r="B4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="3">
-        <f>IF(EXERGIAS!J4=0,0,EXERGIAS!J4/EXERGIAS!J4)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="str">
-        <f>Flows!A5</f>
-        <v>B1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="3">
-        <f>CosteEnergias!$B$3</f>
-        <v>1.06</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="str">
-        <f>Flows!A6</f>
-        <v>B2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="3">
-        <f>IF(EXERGIAS!J6=0,0,EXERGIAS!J6/EXERGIAS!J6)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="str">
-        <f>Flows!A7</f>
-        <v>B4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="29">
-        <f>CosteEnergias!$B$2</f>
-        <v>2.1375996313958843</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="str">
-        <f>Flows!A8</f>
-        <v>JB</v>
-      </c>
-      <c r="B8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="3">
-        <f>IF(EXERGIAS!J8=0,0,EXERGIAS!J8/EXERGIAS!J8)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="str">
-        <f>Flows!A9</f>
-        <v>CB</v>
-      </c>
-      <c r="B9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="3">
-        <f>IF(EXERGIAS!J9=0,0,EXERGIAS!J9/EXERGIAS!J9)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="str">
-        <f>Flows!A10</f>
-        <v>B3</v>
-      </c>
-      <c r="B10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="3">
-        <f>IF(EXERGIAS!J10=0,0,EXERGIAS!J10/EXERGIAS!J10)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="str">
-        <f>Flows!A11</f>
-        <v>B31</v>
-      </c>
-      <c r="B11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="3">
-        <f>IF(EXERGIAS!J11=0,0,EXERGIAS!J11/EXERGIAS!J11)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="str">
-        <f>Flows!A12</f>
-        <v>BC</v>
-      </c>
-      <c r="B12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="3">
-        <f>IF(EXERGIAS!J12=0,0,EXERGIAS!J12/EXERGIAS!J12)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="str">
-        <f>Flows!A13</f>
-        <v>BG</v>
-      </c>
-      <c r="B13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="3">
-        <f>IF(EXERGIAS!J13=0,0,EXERGIAS!J13/EXERGIAS!J13)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="str">
-        <f>Flows!A14</f>
-        <v>C1</v>
-      </c>
-      <c r="B14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="3">
-        <f>CosteEnergias!$B$3</f>
-        <v>1.06</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="str">
-        <f>Flows!A15</f>
-        <v>C2</v>
-      </c>
-      <c r="B15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="3">
-        <f>IF(EXERGIAS!J15=0,0,EXERGIAS!J15/EXERGIAS!J15)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="str">
-        <f>Flows!A16</f>
-        <v>JC</v>
-      </c>
-      <c r="B16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="3">
-        <f>IF(EXERGIAS!J16=0,0,EXERGIAS!J16/EXERGIAS!J16)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="str">
-        <f>Flows!A17</f>
-        <v>DC</v>
-      </c>
-      <c r="B17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="3">
-        <f>IF(EXERGIAS!J17=0,0,EXERGIAS!J17/EXERGIAS!J17)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="str">
-        <f>Flows!A18</f>
-        <v>CD</v>
-      </c>
-      <c r="B18" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="3">
-        <f>IF(EXERGIAS!J18=0,0,EXERGIAS!J18/EXERGIAS!J18)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="str">
-        <f>Flows!A19</f>
-        <v>CI</v>
-      </c>
-      <c r="B19" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="3">
-        <f>IF(EXERGIAS!J19=0,0,EXERGIAS!J19/EXERGIAS!J19)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="30" t="str">
-        <f>Flows!A20</f>
-        <v>D1</v>
-      </c>
-      <c r="B20" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="3">
-        <f>CosteEnergias!$B$4</f>
-        <v>1.04</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="str">
-        <f>Flows!A21</f>
-        <v>D2</v>
-      </c>
-      <c r="B21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="3">
-        <f>IF(EXERGIAS!J21=0,0,EXERGIAS!J21/EXERGIAS!J21)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="str">
-        <f>Flows!A22</f>
-        <v>D3</v>
-      </c>
-      <c r="B22" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="3">
-        <f>IF(EXERGIAS!J22=0,0,EXERGIAS!J22/EXERGIAS!J22)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="str">
-        <f>Flows!A23</f>
-        <v>FD</v>
-      </c>
-      <c r="B23" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="3">
-        <f>IF(EXERGIAS!J23=0,0,EXERGIAS!J23/EXERGIAS!J23)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="str">
-        <f>Flows!A24</f>
-        <v>DE</v>
-      </c>
-      <c r="B24" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24" s="3">
-        <f>IF(EXERGIAS!J24=0,0,EXERGIAS!J24/EXERGIAS!J24)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="str">
-        <f>Flows!A25</f>
-        <v>D4</v>
-      </c>
-      <c r="B25" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="3">
-        <f>IF(EXERGIAS!J25=0,0,EXERGIAS!J25/EXERGIAS!J25)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="str">
-        <f>Flows!A26</f>
-        <v>D41</v>
-      </c>
-      <c r="B26" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" s="3">
-        <f>IF(EXERGIAS!J26=0,0,EXERGIAS!J26/EXERGIAS!J26)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="str">
-        <f>Flows!A27</f>
-        <v>E1</v>
-      </c>
-      <c r="B27" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" s="3">
-        <f>IF(EXERGIAS!J27=0,0,EXERGIAS!J27/EXERGIAS!J27)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="str">
-        <f>Flows!A28</f>
-        <v>E2</v>
-      </c>
-      <c r="B28" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" s="3">
-        <f>IF(EXERGIAS!J28=0,0,EXERGIAS!J28/EXERGIAS!J28)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="e">
-        <f>Flows!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C29" s="3">
-        <f>IF(EXERGIAS!J29=0,0,EXERGIAS!J29/EXERGIAS!J29)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="str">
-        <f>Flows!A30</f>
-        <v>EF</v>
-      </c>
-      <c r="B30" t="s">
-        <v>29</v>
-      </c>
-      <c r="C30" s="3">
-        <f>IF(EXERGIAS!J30=0,0,EXERGIAS!J30/EXERGIAS!J30)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="str">
-        <f>Flows!A31</f>
-        <v>F1</v>
-      </c>
-      <c r="B31" t="s">
-        <v>29</v>
-      </c>
-      <c r="C31" s="29">
-        <f>CosteEnergias!$B$2</f>
-        <v>2.1375996313958843</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="str">
-        <f>Flows!A32</f>
-        <v>F2</v>
-      </c>
-      <c r="B32" t="s">
-        <v>29</v>
-      </c>
-      <c r="C32" s="3">
-        <f>IF(EXERGIAS!J32=0,0,EXERGIAS!J32/EXERGIAS!J32)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="str">
-        <f>Flows!A33</f>
-        <v>F3</v>
-      </c>
-      <c r="B33" t="s">
-        <v>29</v>
-      </c>
-      <c r="C33" s="3">
-        <f>IF(EXERGIAS!J33=0,0,EXERGIAS!J33/EXERGIAS!J33)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="str">
-        <f>Flows!A34</f>
-        <v>F4</v>
-      </c>
-      <c r="B34" t="s">
-        <v>29</v>
-      </c>
-      <c r="C34" s="3">
-        <f>IF(EXERGIAS!J34=0,0,EXERGIAS!J34/EXERGIAS!J34)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="str">
-        <f>Flows!A35</f>
-        <v>F5</v>
-      </c>
-      <c r="B35" t="s">
-        <v>29</v>
-      </c>
-      <c r="C35" s="3">
-        <f>IF(EXERGIAS!J35=0,0,EXERGIAS!J35/EXERGIAS!J35)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="str">
-        <f>Flows!A36</f>
-        <v>G1</v>
-      </c>
-      <c r="B36" t="s">
-        <v>29</v>
-      </c>
-      <c r="C36" s="3">
-        <f>IF(EXERGIAS!J36=0,0,EXERGIAS!J36/EXERGIAS!J36)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="str">
-        <f>Flows!A37</f>
-        <v>GI</v>
-      </c>
-      <c r="B37" t="s">
-        <v>29</v>
-      </c>
-      <c r="C37" s="3">
-        <f>IF(EXERGIAS!J37=0,0,EXERGIAS!J37/EXERGIAS!J37)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="str">
-        <f>Flows!A38</f>
-        <v>H1</v>
-      </c>
-      <c r="B38" t="s">
-        <v>29</v>
-      </c>
-      <c r="C38" s="3">
-        <f>IF(EXERGIAS!J38=0,0,EXERGIAS!J38/EXERGIAS!J38)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="8" t="str">
-        <f>Flows!A39</f>
-        <v>H2</v>
-      </c>
-      <c r="B39" t="s">
-        <v>29</v>
-      </c>
-      <c r="C39" s="29">
-        <f>CosteEnergias!$B$2</f>
-        <v>2.1375996313958843</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="str">
-        <f>Flows!A40</f>
-        <v>HI</v>
-      </c>
-      <c r="B40" t="s">
-        <v>29</v>
-      </c>
-      <c r="C40" s="3">
-        <f>IF(EXERGIAS!J40=0,0,EXERGIAS!J40/EXERGIAS!J40)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="str">
-        <f>Flows!A41</f>
-        <v>I1</v>
-      </c>
-      <c r="B41" t="s">
-        <v>29</v>
-      </c>
-      <c r="C41" s="3">
-        <f>IF(EXERGIAS!J41=0,0,EXERGIAS!J41/EXERGIAS!J41)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="str">
-        <f>Flows!A42</f>
-        <v>I2</v>
-      </c>
-      <c r="B42" t="s">
-        <v>29</v>
-      </c>
-      <c r="C42" s="3">
-        <f>IF(EXERGIAS!J42=0,0,EXERGIAS!J42/EXERGIAS!J42)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="str">
-        <f>Flows!A43</f>
-        <v>I3</v>
-      </c>
-      <c r="B43" t="s">
-        <v>29</v>
-      </c>
-      <c r="C43" s="3">
-        <f>IF(EXERGIAS!J43=0,0,EXERGIAS!J43/EXERGIAS!J43)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="str">
-        <f>Flows!A44</f>
-        <v>I31</v>
-      </c>
-      <c r="B44" t="s">
-        <v>29</v>
-      </c>
-      <c r="C44" s="3">
-        <f>IF(EXERGIAS!J44=0,0,EXERGIAS!J44/EXERGIAS!J44)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="str">
-        <f>Flows!A45</f>
-        <v>J1</v>
-      </c>
-      <c r="B45" t="s">
-        <v>29</v>
-      </c>
-      <c r="C45" s="3">
-        <f>IF(EXERGIAS!J45=0,0,EXERGIAS!J45/EXERGIAS!J45)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="8" t="str">
-        <f>Flows!A46</f>
-        <v>J2</v>
-      </c>
-      <c r="B46" t="s">
-        <v>29</v>
-      </c>
-      <c r="C46" s="29">
-        <f>CosteEnergias!$B$2</f>
-        <v>2.1375996313958843</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="str">
-        <f>Flows!A47</f>
-        <v>F41</v>
-      </c>
-      <c r="C47" s="3">
-        <f>IF(EXERGIAS!J47=0,0,EXERGIAS!J47/EXERGIAS!J47)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="str">
-        <f>Flows!A48</f>
-        <v>F51</v>
-      </c>
-      <c r="C48" s="3">
-        <f>IF(EXERGIAS!J48=0,0,EXERGIAS!J48/EXERGIAS!J48)</f>
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0600-000000000000}">
-          <x14:formula1>
-            <xm:f>Validate!$D$2:$D$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>B2:B46</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5819C5C2-E2A8-4A30-8897-4CA1C9BD5C9B}">
-  <dimension ref="A1:E47"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:XFD29"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29770,978 +28696,232 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>145</v>
+        <v>116</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>146</v>
+        <v>117</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>147</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="str">
+      <c r="A2" s="35" t="str">
         <f>Flows!A2</f>
         <v>A1</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="3">
-        <f>IF(EXERGIAS!J2=0,0,EXERGIAS!J2/EXERGIAS!J2)</f>
-        <v>1</v>
-      </c>
-      <c r="D2" s="3">
-        <f>IF(EXERGIAS!J2=0,0,EXERGIAS!H2/EXERGIAS!J2)</f>
-        <v>0.86378346780643389</v>
-      </c>
-      <c r="E2" s="3">
-        <f>IF(EXERGIAS!J2=0,0,EXERGIAS!I2/EXERGIAS!J2)</f>
-        <v>0.13621653219356605</v>
+      <c r="C2" s="30">
+        <v>16.733724202107989</v>
+      </c>
+      <c r="D2" s="31">
+        <v>14.454314320613291</v>
+      </c>
+      <c r="E2" s="31">
+        <v>2.2794098814946984</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="str">
+      <c r="A3" s="35" t="str">
         <f>Flows!A3</f>
         <v>A2</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="29">
-        <f>CosteEnergias!$B$2</f>
+      <c r="C3" s="30">
         <v>2.1375996313958843</v>
       </c>
-      <c r="D3" s="29">
-        <f>CosteEnergias!$C$2</f>
+      <c r="D3" s="31">
         <v>1.7893546153577684</v>
       </c>
-      <c r="E3" s="29">
-        <f>CosteEnergias!$D$2</f>
+      <c r="E3" s="31">
         <v>0.34824501603811592</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="str">
+      <c r="A4" s="35" t="str">
         <f>Flows!A4</f>
-        <v>AB</v>
+        <v>B1</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="3">
-        <f>IF(EXERGIAS!J4=0,0,EXERGIAS!J4/EXERGIAS!J4)</f>
-        <v>1</v>
-      </c>
-      <c r="D4" s="3">
-        <f>IF(EXERGIAS!J4=0,0,EXERGIAS!H4/EXERGIAS!J4)</f>
-        <v>0.86378346780643389</v>
-      </c>
-      <c r="E4" s="3">
-        <f>IF(EXERGIAS!J4=0,0,EXERGIAS!I4/EXERGIAS!J4)</f>
-        <v>0.13621653219356605</v>
+      <c r="C4">
+        <v>1.06</v>
+      </c>
+      <c r="D4" s="31">
+        <v>1.06</v>
+      </c>
+      <c r="E4" s="31">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="str">
+      <c r="A5" s="35" t="str">
         <f>Flows!A5</f>
-        <v>B1</v>
+        <v>B4</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="3">
-        <f>CosteEnergias!$B$3</f>
-        <v>1.06</v>
-      </c>
-      <c r="D5" s="29">
-        <f>CosteEnergias!$C$3</f>
-        <v>1.06</v>
-      </c>
-      <c r="E5" s="29">
-        <f>CosteEnergias!$D$3</f>
-        <v>0</v>
+      <c r="C5" s="30">
+        <v>2.1375996313958843</v>
+      </c>
+      <c r="D5" s="31">
+        <v>1.7893546153577684</v>
+      </c>
+      <c r="E5" s="31">
+        <v>0.34824501603811592</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="str">
+      <c r="A6" s="35" t="str">
         <f>Flows!A6</f>
-        <v>B2</v>
+        <v>C1</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="3">
-        <f>IF(EXERGIAS!J6=0,0,EXERGIAS!J6/EXERGIAS!J6)</f>
+      <c r="C6">
+        <v>1.06</v>
+      </c>
+      <c r="D6" s="31">
+        <v>1.06</v>
+      </c>
+      <c r="E6" s="31">
         <v>0</v>
       </c>
-      <c r="D6" s="3">
-        <f>IF(EXERGIAS!J6=0,0,EXERGIAS!H6/EXERGIAS!J6)</f>
-        <v>0</v>
-      </c>
-      <c r="E6" s="3">
-        <f>IF(EXERGIAS!J6=0,0,EXERGIAS!I6/EXERGIAS!J6)</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="str">
+      <c r="A7" s="35" t="str">
         <f>Flows!A7</f>
-        <v>B4</v>
+        <v>C2</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="29">
-        <f>CosteEnergias!$B$2</f>
-        <v>2.1375996313958843</v>
-      </c>
-      <c r="D7" s="29">
-        <f>CosteEnergias!$C$2</f>
-        <v>1.7893546153577684</v>
-      </c>
-      <c r="E7" s="29">
-        <f>CosteEnergias!$D$2</f>
-        <v>0.34824501603811592</v>
+      <c r="C7" s="30">
+        <v>10.060083009288538</v>
+      </c>
+      <c r="D7" s="31">
+        <v>9.5698070942227407</v>
+      </c>
+      <c r="E7" s="31">
+        <v>0.49027591506579687</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="str">
+      <c r="A8" s="35" t="str">
         <f>Flows!A8</f>
-        <v>JB</v>
+        <v>D1</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="3">
-        <f>IF(EXERGIAS!J8=0,0,EXERGIAS!J8/EXERGIAS!J8)</f>
+      <c r="C8">
+        <v>1.04</v>
+      </c>
+      <c r="D8" s="31">
+        <v>1.04</v>
+      </c>
+      <c r="E8" s="31">
         <v>0</v>
       </c>
-      <c r="D8" s="3">
-        <f>IF(EXERGIAS!J8=0,0,EXERGIAS!H8/EXERGIAS!J8)</f>
-        <v>0</v>
-      </c>
-      <c r="E8" s="3">
-        <f>IF(EXERGIAS!J8=0,0,EXERGIAS!I8/EXERGIAS!J8)</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="str">
+      <c r="A9" s="35" t="str">
         <f>Flows!A9</f>
-        <v>CB</v>
+        <v>D2</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="3">
-        <f>IF(EXERGIAS!J9=0,0,EXERGIAS!J9/EXERGIAS!J9)</f>
-        <v>1</v>
-      </c>
-      <c r="D9" s="3">
-        <f>IF(EXERGIAS!J9=0,0,EXERGIAS!H9/EXERGIAS!J9)</f>
-        <v>0.90379173525982082</v>
-      </c>
-      <c r="E9" s="3">
-        <f>IF(EXERGIAS!J9=0,0,EXERGIAS!I9/EXERGIAS!J9)</f>
-        <v>9.6208264740179211E-2</v>
+      <c r="C9" s="30">
+        <v>12.317677623090731</v>
+      </c>
+      <c r="D9" s="31">
+        <v>11.71015824069346</v>
+      </c>
+      <c r="E9" s="31">
+        <v>0.60751938239727077</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="str">
+      <c r="A10" s="35" t="str">
         <f>Flows!A10</f>
-        <v>B3</v>
+        <v>F1</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="3">
-        <f>IF(EXERGIAS!J10=0,0,EXERGIAS!J10/EXERGIAS!J10)</f>
-        <v>1</v>
-      </c>
-      <c r="D10" s="3">
-        <f>IF(EXERGIAS!J10=0,0,EXERGIAS!H10/EXERGIAS!J10)</f>
-        <v>0.91256402874651599</v>
-      </c>
-      <c r="E10" s="3">
-        <f>IF(EXERGIAS!J10=0,0,EXERGIAS!I10/EXERGIAS!J10)</f>
-        <v>8.7435971253483957E-2</v>
+      <c r="C10" s="30">
+        <v>2.1375996313958843</v>
+      </c>
+      <c r="D10" s="31">
+        <v>1.7893546153577684</v>
+      </c>
+      <c r="E10" s="31">
+        <v>0.34824501603811592</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="str">
+      <c r="A11" s="35" t="str">
         <f>Flows!A11</f>
-        <v>B31</v>
+        <v>F2</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="3">
-        <f>IF(EXERGIAS!J11=0,0,EXERGIAS!J11/EXERGIAS!J11)</f>
+      <c r="C11">
         <v>1</v>
       </c>
-      <c r="D11" s="3">
-        <f>IF(EXERGIAS!J11=0,0,EXERGIAS!H11/EXERGIAS!J11)</f>
-        <v>0.91256402874651599</v>
-      </c>
-      <c r="E11" s="3">
-        <f>IF(EXERGIAS!J11=0,0,EXERGIAS!I11/EXERGIAS!J11)</f>
-        <v>8.7435971253483957E-2</v>
+      <c r="D11" s="31">
+        <v>1</v>
+      </c>
+      <c r="E11" s="31">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="str">
+      <c r="A12" s="35" t="str">
         <f>Flows!A12</f>
-        <v>BC</v>
+        <v>J2</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="3">
-        <f>IF(EXERGIAS!J12=0,0,EXERGIAS!J12/EXERGIAS!J12)</f>
-        <v>1</v>
-      </c>
-      <c r="D12" s="3">
-        <f>IF(EXERGIAS!J12=0,0,EXERGIAS!H12/EXERGIAS!J12)</f>
-        <v>0.8692383050416973</v>
-      </c>
-      <c r="E12" s="3">
-        <f>IF(EXERGIAS!J12=0,0,EXERGIAS!I12/EXERGIAS!J12)</f>
-        <v>0.13076169495830275</v>
+      <c r="C12" s="30">
+        <v>2.1375996313958843</v>
+      </c>
+      <c r="D12" s="31">
+        <v>1.7893546153577684</v>
+      </c>
+      <c r="E12" s="31">
+        <v>0.34824501603811592</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="str">
-        <f>Flows!A13</f>
-        <v>BG</v>
+      <c r="A13" s="35" t="s">
+        <v>211</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="3">
-        <f>IF(EXERGIAS!J13=0,0,EXERGIAS!J13/EXERGIAS!J13)</f>
-        <v>1</v>
-      </c>
-      <c r="D13" s="3">
-        <f>IF(EXERGIAS!J13=0,0,EXERGIAS!H13/EXERGIAS!J13)</f>
-        <v>0.87400265610181527</v>
-      </c>
-      <c r="E13" s="3">
-        <f>IF(EXERGIAS!J13=0,0,EXERGIAS!I13/EXERGIAS!J13)</f>
-        <v>0.12599734389818476</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="str">
-        <f>Flows!A14</f>
-        <v>C1</v>
-      </c>
-      <c r="B14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="3">
-        <f>CosteEnergias!$B$3</f>
-        <v>1.06</v>
-      </c>
-      <c r="D14" s="29">
-        <f>CosteEnergias!$C$3</f>
-        <v>1.06</v>
-      </c>
-      <c r="E14" s="29">
-        <f>CosteEnergias!$D$3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="str">
-        <f>Flows!A15</f>
-        <v>C2</v>
-      </c>
-      <c r="B15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="3">
-        <f>IF(EXERGIAS!J15=0,0,EXERGIAS!J15/EXERGIAS!J15)</f>
-        <v>1</v>
-      </c>
-      <c r="D15" s="3">
-        <f>IF(EXERGIAS!J15=0,0,EXERGIAS!H15/EXERGIAS!J15)</f>
-        <v>0.95126522170710492</v>
-      </c>
-      <c r="E15" s="3">
-        <f>IF(EXERGIAS!J15=0,0,EXERGIAS!I15/EXERGIAS!J15)</f>
-        <v>4.8734778292894999E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="str">
-        <f>Flows!A16</f>
-        <v>JC</v>
-      </c>
-      <c r="B16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="3">
-        <f>IF(EXERGIAS!J16=0,0,EXERGIAS!J16/EXERGIAS!J16)</f>
-        <v>0</v>
-      </c>
-      <c r="D16" s="3">
-        <f>IF(EXERGIAS!J16=0,0,EXERGIAS!H16/EXERGIAS!J16)</f>
-        <v>0</v>
-      </c>
-      <c r="E16" s="3">
-        <f>IF(EXERGIAS!J16=0,0,EXERGIAS!I16/EXERGIAS!J16)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="str">
-        <f>Flows!A17</f>
-        <v>DC</v>
-      </c>
-      <c r="B17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="3">
-        <f>IF(EXERGIAS!J17=0,0,EXERGIAS!J17/EXERGIAS!J17)</f>
-        <v>1</v>
-      </c>
-      <c r="D17" s="3">
-        <f>IF(EXERGIAS!J17=0,0,EXERGIAS!H17/EXERGIAS!J17)</f>
-        <v>0.9176020471717421</v>
-      </c>
-      <c r="E17" s="3">
-        <f>IF(EXERGIAS!J17=0,0,EXERGIAS!I17/EXERGIAS!J17)</f>
-        <v>8.2397952828257917E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="str">
-        <f>Flows!A18</f>
-        <v>CD</v>
-      </c>
-      <c r="B18" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="3">
-        <f>IF(EXERGIAS!J18=0,0,EXERGIAS!J18/EXERGIAS!J18)</f>
-        <v>1</v>
-      </c>
-      <c r="D18" s="3">
-        <f>IF(EXERGIAS!J18=0,0,EXERGIAS!H18/EXERGIAS!J18)</f>
-        <v>0.86198211216075893</v>
-      </c>
-      <c r="E18" s="3">
-        <f>IF(EXERGIAS!J18=0,0,EXERGIAS!I18/EXERGIAS!J18)</f>
-        <v>0.13801788783924102</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="str">
-        <f>Flows!A19</f>
-        <v>CI</v>
-      </c>
-      <c r="B19" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="3">
-        <f>IF(EXERGIAS!J19=0,0,EXERGIAS!J19/EXERGIAS!J19)</f>
-        <v>1</v>
-      </c>
-      <c r="D19" s="3">
-        <f>IF(EXERGIAS!J19=0,0,EXERGIAS!H19/EXERGIAS!J19)</f>
-        <v>0.90023751212807612</v>
-      </c>
-      <c r="E19" s="3">
-        <f>IF(EXERGIAS!J19=0,0,EXERGIAS!I19/EXERGIAS!J19)</f>
-        <v>9.9762487871923933E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="30" t="str">
-        <f>Flows!A20</f>
-        <v>D1</v>
-      </c>
-      <c r="B20" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="3">
-        <f>CosteEnergias!$B$4</f>
-        <v>1.04</v>
-      </c>
-      <c r="D20" s="29">
-        <f>CosteEnergias!$C$4</f>
-        <v>1.04</v>
-      </c>
-      <c r="E20" s="29">
-        <f>CosteEnergias!$D$4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="str">
-        <f>Flows!A21</f>
-        <v>D2</v>
-      </c>
-      <c r="B21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="3">
-        <f>IF(EXERGIAS!J21=0,0,EXERGIAS!J21/EXERGIAS!J21)</f>
-        <v>1</v>
-      </c>
-      <c r="D21" s="3">
-        <f>IF(EXERGIAS!J21=0,0,EXERGIAS!H21/EXERGIAS!J21)</f>
-        <v>0.95067906459425311</v>
-      </c>
-      <c r="E21" s="3">
-        <f>IF(EXERGIAS!J21=0,0,EXERGIAS!I21/EXERGIAS!J21)</f>
-        <v>4.9320935405746801E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="str">
-        <f>Flows!A22</f>
-        <v>D3</v>
-      </c>
-      <c r="B22" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="3">
-        <f>IF(EXERGIAS!J22=0,0,EXERGIAS!J22/EXERGIAS!J22)</f>
-        <v>0</v>
-      </c>
-      <c r="D22" s="3">
-        <f>IF(EXERGIAS!J22=0,0,EXERGIAS!H22/EXERGIAS!J22)</f>
-        <v>0</v>
-      </c>
-      <c r="E22" s="3">
-        <f>IF(EXERGIAS!J22=0,0,EXERGIAS!I22/EXERGIAS!J22)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="str">
-        <f>Flows!A23</f>
-        <v>FD</v>
-      </c>
-      <c r="B23" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="3">
-        <f>IF(EXERGIAS!J23=0,0,EXERGIAS!J23/EXERGIAS!J23)</f>
-        <v>1</v>
-      </c>
-      <c r="D23" s="3">
-        <f>IF(EXERGIAS!J23=0,0,EXERGIAS!H23/EXERGIAS!J23)</f>
-        <v>0.86147389101470095</v>
-      </c>
-      <c r="E23" s="3">
-        <f>IF(EXERGIAS!J23=0,0,EXERGIAS!I23/EXERGIAS!J23)</f>
-        <v>0.1385261089852991</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="str">
-        <f>Flows!A24</f>
-        <v>DE</v>
-      </c>
-      <c r="B24" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24" s="3">
-        <f>IF(EXERGIAS!J24=0,0,EXERGIAS!J24/EXERGIAS!J24)</f>
-        <v>1</v>
-      </c>
-      <c r="D24" s="3">
-        <f>IF(EXERGIAS!J24=0,0,EXERGIAS!H24/EXERGIAS!J24)</f>
-        <v>0.86147389101470084</v>
-      </c>
-      <c r="E24" s="3">
-        <f>IF(EXERGIAS!J24=0,0,EXERGIAS!I24/EXERGIAS!J24)</f>
-        <v>0.1385261089852991</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="str">
-        <f>Flows!A25</f>
-        <v>D4</v>
-      </c>
-      <c r="B25" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="3">
-        <f>IF(EXERGIAS!J25=0,0,EXERGIAS!J25/EXERGIAS!J25)</f>
-        <v>1</v>
-      </c>
-      <c r="D25" s="3">
-        <f>IF(EXERGIAS!J25=0,0,EXERGIAS!H25/EXERGIAS!J25)</f>
-        <v>0.90649553454331389</v>
-      </c>
-      <c r="E25" s="3">
-        <f>IF(EXERGIAS!J25=0,0,EXERGIAS!I25/EXERGIAS!J25)</f>
-        <v>9.3504465456686225E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="str">
-        <f>Flows!A26</f>
-        <v>D41</v>
-      </c>
-      <c r="B26" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" s="3">
-        <f>IF(EXERGIAS!J26=0,0,EXERGIAS!J26/EXERGIAS!J26)</f>
-        <v>1</v>
-      </c>
-      <c r="D26" s="3">
-        <f>IF(EXERGIAS!J26=0,0,EXERGIAS!H26/EXERGIAS!J26)</f>
-        <v>0.90649553454331389</v>
-      </c>
-      <c r="E26" s="3">
-        <f>IF(EXERGIAS!J26=0,0,EXERGIAS!I26/EXERGIAS!J26)</f>
-        <v>9.3504465456686225E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="str">
-        <f>Flows!A27</f>
-        <v>E1</v>
-      </c>
-      <c r="B27" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" s="3">
-        <f>IF(EXERGIAS!J27=0,0,EXERGIAS!J27/EXERGIAS!J27)</f>
-        <v>0</v>
-      </c>
-      <c r="D27" s="3">
-        <f>IF(EXERGIAS!J27=0,0,EXERGIAS!H27/EXERGIAS!J27)</f>
-        <v>0</v>
-      </c>
-      <c r="E27" s="3">
-        <f>IF(EXERGIAS!J27=0,0,EXERGIAS!I27/EXERGIAS!J27)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="str">
-        <f>Flows!A28</f>
-        <v>E2</v>
-      </c>
-      <c r="B28" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" s="3">
-        <f>IF(EXERGIAS!J28=0,0,EXERGIAS!J28/EXERGIAS!J28)</f>
-        <v>0</v>
-      </c>
-      <c r="D28" s="3">
-        <f>IF(EXERGIAS!J28=0,0,EXERGIAS!H28/EXERGIAS!J28)</f>
-        <v>0</v>
-      </c>
-      <c r="E28" s="3">
-        <f>IF(EXERGIAS!J28=0,0,EXERGIAS!I28/EXERGIAS!J28)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="str">
-        <f>Flows!A30</f>
-        <v>EF</v>
-      </c>
-      <c r="B29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C29" s="3">
-        <f>IF(EXERGIAS!J30=0,0,EXERGIAS!J30/EXERGIAS!J30)</f>
-        <v>1</v>
-      </c>
-      <c r="D29" s="3">
-        <f>IF(EXERGIAS!J30=0,0,EXERGIAS!H30/EXERGIAS!J30)</f>
-        <v>0.86147389101470084</v>
-      </c>
-      <c r="E29" s="3">
-        <f>IF(EXERGIAS!J30=0,0,EXERGIAS!I30/EXERGIAS!J30)</f>
-        <v>0.1385261089852991</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="str">
-        <f>Flows!A31</f>
-        <v>F1</v>
-      </c>
-      <c r="B30" t="s">
-        <v>29</v>
-      </c>
-      <c r="C30" s="29">
-        <f>CosteEnergias!$B$2</f>
-        <v>2.1375996313958843</v>
-      </c>
-      <c r="D30" s="29">
-        <f>CosteEnergias!$C$2</f>
-        <v>1.7893546153577684</v>
-      </c>
-      <c r="E30" s="29">
-        <f>CosteEnergias!$D$2</f>
-        <v>0.34824501603811592</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="str">
-        <f>Flows!A32</f>
-        <v>F2</v>
-      </c>
-      <c r="B31" t="s">
-        <v>29</v>
-      </c>
-      <c r="C31" s="3">
-        <f>IF(EXERGIAS!J32=0,0,EXERGIAS!J32/EXERGIAS!J32)</f>
-        <v>0</v>
-      </c>
-      <c r="D31" s="3">
-        <f>IF(EXERGIAS!J32=0,0,EXERGIAS!H32/EXERGIAS!J32)</f>
-        <v>0</v>
-      </c>
-      <c r="E31" s="3">
-        <f>IF(EXERGIAS!J32=0,0,EXERGIAS!I32/EXERGIAS!J32)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="str">
-        <f>Flows!A33</f>
-        <v>F3</v>
-      </c>
-      <c r="B32" t="s">
-        <v>29</v>
-      </c>
-      <c r="C32" s="3">
-        <f>IF(EXERGIAS!J33=0,0,EXERGIAS!J33/EXERGIAS!J33)</f>
-        <v>1</v>
-      </c>
-      <c r="D32" s="3">
-        <f>IF(EXERGIAS!J33=0,0,EXERGIAS!H33/EXERGIAS!J33)</f>
-        <v>0.86021596134655032</v>
-      </c>
-      <c r="E32" s="3">
-        <f>IF(EXERGIAS!J33=0,0,EXERGIAS!I33/EXERGIAS!J33)</f>
-        <v>0.13978403865344963</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="str">
-        <f>Flows!A34</f>
-        <v>F4</v>
-      </c>
-      <c r="B33" t="s">
-        <v>29</v>
-      </c>
-      <c r="C33" s="3">
-        <f>IF(EXERGIAS!J34=0,0,EXERGIAS!J34/EXERGIAS!J34)</f>
-        <v>1</v>
-      </c>
-      <c r="D33" s="3">
-        <f>IF(EXERGIAS!J34=0,0,EXERGIAS!H34/EXERGIAS!J34)</f>
-        <v>0.88399616432617423</v>
-      </c>
-      <c r="E33" s="3">
-        <f>IF(EXERGIAS!J34=0,0,EXERGIAS!I34/EXERGIAS!J34)</f>
-        <v>0.11600383567382574</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="str">
-        <f>Flows!A35</f>
-        <v>F5</v>
-      </c>
-      <c r="B34" t="s">
-        <v>29</v>
-      </c>
-      <c r="C34" s="3">
-        <f>IF(EXERGIAS!J35=0,0,EXERGIAS!J35/EXERGIAS!J35)</f>
-        <v>1</v>
-      </c>
-      <c r="D34" s="3">
-        <f>IF(EXERGIAS!J35=0,0,EXERGIAS!H35/EXERGIAS!J35)</f>
-        <v>0.87260588661305982</v>
-      </c>
-      <c r="E34" s="3">
-        <f>IF(EXERGIAS!J35=0,0,EXERGIAS!I35/EXERGIAS!J35)</f>
-        <v>0.12739411338694012</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="str">
-        <f>Flows!A36</f>
-        <v>G1</v>
-      </c>
-      <c r="B35" t="s">
-        <v>29</v>
-      </c>
-      <c r="C35" s="3">
-        <f>IF(EXERGIAS!J36=0,0,EXERGIAS!J36/EXERGIAS!J36)</f>
-        <v>0</v>
-      </c>
-      <c r="D35" s="3">
-        <f>IF(EXERGIAS!J36=0,0,EXERGIAS!H36/EXERGIAS!J36)</f>
-        <v>0</v>
-      </c>
-      <c r="E35" s="3">
-        <f>IF(EXERGIAS!J36=0,0,EXERGIAS!I36/EXERGIAS!J36)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="str">
-        <f>Flows!A37</f>
-        <v>GI</v>
-      </c>
-      <c r="B36" t="s">
-        <v>29</v>
-      </c>
-      <c r="C36" s="3">
-        <f>IF(EXERGIAS!J37=0,0,EXERGIAS!J37/EXERGIAS!J37)</f>
-        <v>1</v>
-      </c>
-      <c r="D36" s="3">
-        <f>IF(EXERGIAS!J37=0,0,EXERGIAS!H37/EXERGIAS!J37)</f>
-        <v>0.87400265610181527</v>
-      </c>
-      <c r="E36" s="3">
-        <f>IF(EXERGIAS!J37=0,0,EXERGIAS!I37/EXERGIAS!J37)</f>
-        <v>0.12599734389818476</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="str">
-        <f>Flows!A38</f>
-        <v>H1</v>
-      </c>
-      <c r="B37" t="s">
-        <v>29</v>
-      </c>
-      <c r="C37" s="3">
-        <f>IF(EXERGIAS!J38=0,0,EXERGIAS!J38/EXERGIAS!J38)</f>
-        <v>0</v>
-      </c>
-      <c r="D37" s="3">
-        <f>IF(EXERGIAS!J38=0,0,EXERGIAS!H38/EXERGIAS!J38)</f>
-        <v>0</v>
-      </c>
-      <c r="E37" s="3">
-        <f>IF(EXERGIAS!J38=0,0,EXERGIAS!I38/EXERGIAS!J38)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="8" t="str">
-        <f>Flows!A39</f>
-        <v>H2</v>
-      </c>
-      <c r="B38" t="s">
-        <v>29</v>
-      </c>
-      <c r="C38" s="29">
-        <f>CosteEnergias!$B$2</f>
-        <v>2.1375996313958843</v>
-      </c>
-      <c r="D38" s="29">
-        <f>CosteEnergias!$C$2</f>
-        <v>1.7893546153577684</v>
-      </c>
-      <c r="E38" s="29">
-        <f>CosteEnergias!$D$2</f>
-        <v>0.34824501603811592</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="str">
-        <f>Flows!A40</f>
-        <v>HI</v>
-      </c>
-      <c r="B39" t="s">
-        <v>29</v>
-      </c>
-      <c r="C39" s="3">
-        <f>IF(EXERGIAS!J40=0,0,EXERGIAS!J40/EXERGIAS!J40)</f>
-        <v>0</v>
-      </c>
-      <c r="D39" s="3">
-        <f>IF(EXERGIAS!J40=0,0,EXERGIAS!H40/EXERGIAS!J40)</f>
-        <v>0</v>
-      </c>
-      <c r="E39" s="3">
-        <f>IF(EXERGIAS!J40=0,0,EXERGIAS!I40/EXERGIAS!J40)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="str">
-        <f>Flows!A41</f>
-        <v>I1</v>
-      </c>
-      <c r="B40" t="s">
-        <v>29</v>
-      </c>
-      <c r="C40" s="3">
-        <f>IF(EXERGIAS!J41=0,0,EXERGIAS!J41/EXERGIAS!J41)</f>
-        <v>0</v>
-      </c>
-      <c r="D40" s="3">
-        <f>IF(EXERGIAS!J41=0,0,EXERGIAS!H41/EXERGIAS!J41)</f>
-        <v>0</v>
-      </c>
-      <c r="E40" s="3">
-        <f>IF(EXERGIAS!J41=0,0,EXERGIAS!I41/EXERGIAS!J41)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="str">
-        <f>Flows!A42</f>
-        <v>I2</v>
-      </c>
-      <c r="B41" t="s">
-        <v>29</v>
-      </c>
-      <c r="C41" s="3">
-        <f>IF(EXERGIAS!J42=0,0,EXERGIAS!J42/EXERGIAS!J42)</f>
-        <v>1</v>
-      </c>
-      <c r="D41" s="3">
-        <f>IF(EXERGIAS!J42=0,0,EXERGIAS!H42/EXERGIAS!J42)</f>
-        <v>0.87400265610181527</v>
-      </c>
-      <c r="E41" s="3">
-        <f>IF(EXERGIAS!J42=0,0,EXERGIAS!I42/EXERGIAS!J42)</f>
-        <v>0.12599734389818476</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="str">
-        <f>Flows!A43</f>
-        <v>I3</v>
-      </c>
-      <c r="B42" t="s">
-        <v>29</v>
-      </c>
-      <c r="C42" s="3">
-        <f>IF(EXERGIAS!J43=0,0,EXERGIAS!J43/EXERGIAS!J43)</f>
-        <v>1</v>
-      </c>
-      <c r="D42" s="3">
-        <f>IF(EXERGIAS!J43=0,0,EXERGIAS!H43/EXERGIAS!J43)</f>
-        <v>0.90023751212807612</v>
-      </c>
-      <c r="E42" s="3">
-        <f>IF(EXERGIAS!J43=0,0,EXERGIAS!I43/EXERGIAS!J43)</f>
-        <v>9.9762487871923933E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="str">
-        <f>Flows!A44</f>
-        <v>I31</v>
-      </c>
-      <c r="B43" t="s">
-        <v>29</v>
-      </c>
-      <c r="C43" s="3">
-        <f>IF(EXERGIAS!J44=0,0,EXERGIAS!J44/EXERGIAS!J44)</f>
-        <v>1</v>
-      </c>
-      <c r="D43" s="3">
-        <f>IF(EXERGIAS!J44=0,0,EXERGIAS!H44/EXERGIAS!J44)</f>
-        <v>0.88020810895321044</v>
-      </c>
-      <c r="E43" s="3">
-        <f>IF(EXERGIAS!J44=0,0,EXERGIAS!I44/EXERGIAS!J44)</f>
-        <v>0.11979189104678942</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="str">
-        <f>Flows!A45</f>
-        <v>J1</v>
-      </c>
-      <c r="B44" t="s">
-        <v>29</v>
-      </c>
-      <c r="C44" s="3">
-        <f>IF(EXERGIAS!J45=0,0,EXERGIAS!J45/EXERGIAS!J45)</f>
-        <v>0</v>
-      </c>
-      <c r="D44" s="3">
-        <f>IF(EXERGIAS!J45=0,0,EXERGIAS!H45/EXERGIAS!J45)</f>
-        <v>0</v>
-      </c>
-      <c r="E44" s="3">
-        <f>IF(EXERGIAS!J45=0,0,EXERGIAS!I45/EXERGIAS!J45)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="8" t="str">
-        <f>Flows!A46</f>
-        <v>J2</v>
-      </c>
-      <c r="B45" t="s">
-        <v>29</v>
-      </c>
-      <c r="C45" s="29">
-        <f>CosteEnergias!$B$2</f>
-        <v>2.1375996313958843</v>
-      </c>
-      <c r="D45" s="29">
-        <f>CosteEnergias!$C$2</f>
-        <v>1.7893546153577684</v>
-      </c>
-      <c r="E45" s="29">
-        <f>CosteEnergias!$D$2</f>
-        <v>0.34824501603811592</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="str">
-        <f>Flows!A47</f>
-        <v>F41</v>
-      </c>
-      <c r="C46" s="3">
-        <f>IF(EXERGIAS!J47=0,0,EXERGIAS!J47/EXERGIAS!J47)</f>
-        <v>1</v>
-      </c>
-      <c r="D46" s="3">
-        <f>IF(EXERGIAS!J47=0,0,EXERGIAS!H47/EXERGIAS!J47)</f>
-        <v>0.88399616432617423</v>
-      </c>
-      <c r="E46" s="3">
-        <f>IF(EXERGIAS!J47=0,0,EXERGIAS!I47/EXERGIAS!J47)</f>
-        <v>0.11600383567382574</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="str">
-        <f>Flows!A48</f>
-        <v>F51</v>
-      </c>
-      <c r="C47" s="3">
-        <f>IF(EXERGIAS!J48=0,0,EXERGIAS!J48/EXERGIAS!J48)</f>
-        <v>1</v>
-      </c>
-      <c r="D47" s="3">
-        <f>IF(EXERGIAS!J48=0,0,EXERGIAS!H48/EXERGIAS!J48)</f>
-        <v>0.87260588661305982</v>
-      </c>
-      <c r="E47" s="3">
-        <f>IF(EXERGIAS!J48=0,0,EXERGIAS!I48/EXERGIAS!J48)</f>
-        <v>0.12739411338694012</v>
+      <c r="C13" s="34">
+        <v>2.14</v>
+      </c>
+      <c r="D13" s="36">
+        <v>1.79</v>
+      </c>
+      <c r="E13" s="36">
+        <v>0.35</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
@@ -30749,7 +28929,7 @@
           <x14:formula1>
             <xm:f>Validate!$D$2:$D$3</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B45</xm:sqref>
+          <xm:sqref>B2:B12</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -30757,7 +28937,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr codeName="Hoja9"/>
   <dimension ref="A1:C7"/>
@@ -30785,7 +28965,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="B2" t="s">
         <v>24</v>
@@ -30796,7 +28976,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
@@ -30807,7 +28987,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -30818,7 +28998,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -30829,7 +29009,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -30840,7 +29020,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -30871,4 +29051,134 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2661325A-3C94-4A5B-B56A-7CFBE37AECF6}">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0.75</v>
+      </c>
+      <c r="D3">
+        <v>0.4</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0.25</v>
+      </c>
+      <c r="D4">
+        <v>0.15</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0.45</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Examples/copper/copper_model.xlsx
+++ b/Examples/copper/copper_model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ctorr\Documents\Proyectos\TaesLab\Examples\copper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3DF2B01-A368-49BB-AF06-919327858649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2FF95E7-E4DA-49EE-BDA3-A2D6817FAFBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5340" yWindow="3090" windowWidth="21600" windowHeight="11295" tabRatio="919" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="919" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PhysicalDiagram" sheetId="5" r:id="rId1"/>
@@ -28,7 +28,7 @@
     <sheet name="RXCFI" sheetId="13" state="hidden" r:id="rId13"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Flows!$B$1:$B$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Flows!$B$1:$B$40</definedName>
     <definedName name="cgam_flows" localSheetId="2">Flows!$A$1:$B$4</definedName>
     <definedName name="cgam_processes" localSheetId="3">Processes!$A$1:$D$5</definedName>
     <definedName name="cgam_sample" localSheetId="4">Exergy!$A$1:$B$7</definedName>
@@ -876,7 +876,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -952,20 +952,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -27150,7 +27138,7 @@
   <sheetPr codeName="Hoja3"/>
   <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A33" sqref="A33:XFD33"/>
     </sheetView>
   </sheetViews>
@@ -27602,7 +27590,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:B38" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
+  <autoFilter ref="B1:B40" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -27979,17 +27967,17 @@
   <sheetPr codeName="Hoja5"/>
   <dimension ref="A1:U56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomRight" activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="38" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="38"/>
+    <col min="1" max="1" width="8.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="3"/>
     <col min="3" max="3" width="11.85546875" style="3" customWidth="1"/>
     <col min="4" max="4" width="16.7109375" style="3" customWidth="1"/>
     <col min="5" max="5" width="14.7109375" style="3" bestFit="1" customWidth="1"/>
@@ -28001,359 +27989,359 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="str">
+      <c r="A2" s="3" t="str">
         <f>Flows!A2</f>
         <v>A1</v>
       </c>
-      <c r="B2" s="39">
+      <c r="B2" s="31">
         <v>14241.934359413817</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="38" t="str">
+      <c r="A3" s="3" t="str">
         <f>Flows!A3</f>
         <v>A2</v>
       </c>
-      <c r="B3" s="39">
+      <c r="B3" s="31">
         <v>991.59999999999991</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="B4" s="39">
+      <c r="B4" s="31">
         <v>25</v>
       </c>
       <c r="D4" s="31"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="38" t="str">
+      <c r="A5" s="3" t="str">
         <f>Flows!A14</f>
         <v>AB</v>
       </c>
-      <c r="B5" s="39">
+      <c r="B5" s="31">
         <v>14241.934359413817</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="38" t="str">
+      <c r="A6" s="3" t="str">
         <f>Flows!A4</f>
         <v>B1</v>
       </c>
-      <c r="B6" s="39">
+      <c r="B6" s="31">
         <v>1890.8298403574672</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="38" t="str">
+      <c r="A7" s="3" t="str">
         <f>Flows!A5</f>
         <v>B4</v>
       </c>
-      <c r="B7" s="39">
+      <c r="B7" s="31">
         <v>3062</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="38" t="str">
+      <c r="A8" s="3" t="str">
         <f>Flows!A15</f>
         <v>JB</v>
       </c>
-      <c r="B8" s="39">
+      <c r="B8" s="31">
         <v>1.4235444931748558</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="38" t="str">
+      <c r="A9" s="3" t="str">
         <f>Flows!A16</f>
         <v>CB</v>
       </c>
-      <c r="B9" s="39">
+      <c r="B9" s="31">
         <v>9840.4840246196309</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="38" t="str">
+      <c r="A10" s="3" t="str">
         <f>Flows!A17</f>
         <v>B3</v>
       </c>
-      <c r="B10" s="39">
+      <c r="B10" s="31">
         <v>8394.5886046602463</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="38" t="str">
+      <c r="A11" s="3" t="str">
         <f>Flows!A36</f>
         <v>B31</v>
       </c>
-      <c r="B11" s="39">
+      <c r="B11" s="31">
         <v>8394.5886046602463</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="38" t="str">
+      <c r="A12" s="3" t="str">
         <f>Flows!A18</f>
         <v>BC</v>
       </c>
-      <c r="B12" s="39">
+      <c r="B12" s="31">
         <v>18185.735365278386</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="38" t="str">
+      <c r="A13" s="3" t="str">
         <f>Flows!A19</f>
         <v>BG</v>
       </c>
-      <c r="B13" s="39">
+      <c r="B13" s="31">
         <v>878.57082174977631</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="38" t="str">
+      <c r="A14" s="3" t="str">
         <f>Flows!A6</f>
         <v>C1</v>
       </c>
-      <c r="B14" s="39">
+      <c r="B14" s="31">
         <v>1718.936218506788</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="38" t="str">
+      <c r="A15" s="3" t="str">
         <f>Flows!A7</f>
         <v>C2</v>
       </c>
-      <c r="B15" s="39">
+      <c r="B15" s="31">
         <v>2879.464294902607</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="38" t="str">
+      <c r="A16" s="3" t="str">
         <f>Flows!A20</f>
         <v>JC</v>
       </c>
-      <c r="B16" s="39">
+      <c r="B16" s="31">
         <v>59.992232212368918</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="38" t="str">
+      <c r="A17" s="3" t="str">
         <f>Flows!A21</f>
         <v>DC</v>
       </c>
-      <c r="B17" s="39">
+      <c r="B17" s="31">
         <v>2535.9583372136931</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="38" t="str">
+      <c r="A18" s="3" t="str">
         <f>Flows!A22</f>
         <v>CD</v>
       </c>
-      <c r="B18" s="39">
+      <c r="B18" s="31">
         <v>12039.774126330791</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="38" t="str">
+      <c r="A19" s="3" t="str">
         <f>Flows!A23</f>
         <v>CI</v>
       </c>
-      <c r="B19" s="39">
+      <c r="B19" s="31">
         <v>785.90813378752296</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="38" t="str">
+      <c r="A20" s="3" t="str">
         <f>Flows!A8</f>
         <v>D1</v>
       </c>
-      <c r="B20" s="39">
+      <c r="B20" s="31">
         <v>5403.6723560340815</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="38" t="str">
+      <c r="A21" s="3" t="str">
         <f>Flows!A9</f>
         <v>D2</v>
       </c>
-      <c r="B21" s="39">
+      <c r="B21" s="31">
         <v>1548.8325323083409</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="38" t="str">
+      <c r="A22" s="3" t="str">
         <f>Flows!A24</f>
         <v>FD</v>
       </c>
-      <c r="B22" s="39">
+      <c r="B22" s="31">
         <v>1362.9206090647876</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="38" t="str">
+      <c r="A23" s="3" t="str">
         <f>Flows!A25</f>
         <v>DE</v>
       </c>
-      <c r="B23" s="39">
+      <c r="B23" s="31">
         <v>12982.32962594773</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="38" t="str">
+      <c r="A24" s="3" t="str">
         <f>Flows!A26</f>
         <v>D4</v>
       </c>
-      <c r="B24" s="39">
+      <c r="B24" s="31">
         <v>2752.5720128396733</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="38" t="str">
+      <c r="A25" s="3" t="str">
         <f>Flows!A37</f>
         <v>D41</v>
       </c>
-      <c r="B25" s="39">
+      <c r="B25" s="31">
         <v>2752.5720128396733</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="38" t="str">
+      <c r="A26" s="3" t="str">
         <f>Flows!A27</f>
         <v>EF</v>
       </c>
-      <c r="B26" s="39">
+      <c r="B26" s="31">
         <v>10444.367747523967</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="38" t="str">
+      <c r="A27" s="3" t="str">
         <f>Flows!A10</f>
         <v>F1</v>
       </c>
-      <c r="B27" s="39">
+      <c r="B27" s="31">
         <v>5053.42276266919</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="38" t="str">
+      <c r="A28" s="3" t="str">
         <f>Flows!A11</f>
         <v>F2</v>
       </c>
-      <c r="B28" s="39">
+      <c r="B28" s="31">
         <v>525.86684385046942</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="38" t="str">
+      <c r="A29" s="3" t="str">
         <f>Flows!A33</f>
         <v>F3</v>
       </c>
-      <c r="B29" s="39">
+      <c r="B29" s="31">
         <v>8585.6640649510318</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="38" t="str">
+      <c r="A30" s="3" t="str">
         <f>Flows!A28</f>
         <v>F4</v>
       </c>
-      <c r="B30" s="39">
+      <c r="B30" s="31">
         <v>35.436975941074252</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="38" t="str">
+      <c r="A31" s="3" t="str">
         <f>Flows!A29</f>
         <v>F5</v>
       </c>
-      <c r="B31" s="39">
+      <c r="B31" s="31">
         <v>343.89518280353997</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="38" t="str">
+      <c r="A32" s="3" t="str">
         <f>Flows!A30</f>
         <v>GI</v>
       </c>
-      <c r="B32" s="39">
+      <c r="B32" s="31">
         <v>853.20769219335057</v>
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A33" s="38" t="str">
+      <c r="A33" s="3" t="str">
         <f>Flows!A34</f>
         <v>I1</v>
       </c>
-      <c r="B33" s="39">
+      <c r="B33" s="31">
         <v>599.53487567633351</v>
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A34" s="38" t="str">
+      <c r="A34" s="3" t="str">
         <f>Flows!A31</f>
         <v>I2</v>
       </c>
-      <c r="B34" s="39">
+      <c r="B34" s="31">
         <v>489.97787654361184</v>
       </c>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A35" s="38" t="str">
+      <c r="A35" s="3" t="str">
         <f>Flows!A32</f>
         <v>I3</v>
       </c>
-      <c r="B35" s="39">
+      <c r="B35" s="31">
         <v>265.93093530155585</v>
       </c>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A36" s="38" t="str">
+      <c r="A36" s="3" t="str">
         <f>Flows!A38</f>
         <v>I31</v>
       </c>
-      <c r="B36" s="39">
+      <c r="B36" s="31">
         <f>B34+B35</f>
         <v>755.90881184516775</v>
       </c>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A37" s="38" t="str">
+      <c r="A37" s="3" t="str">
         <f>Flows!A12</f>
         <v>J2</v>
       </c>
-      <c r="B37" s="39">
+      <c r="B37" s="31">
         <v>436.01000000000005</v>
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A38" s="38" t="s">
+      <c r="A38" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B38" s="39">
+      <c r="B38" s="31">
         <v>35.436975941074252</v>
       </c>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A39" s="38" t="s">
+      <c r="A39" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B39" s="39">
+      <c r="B39" s="31">
         <v>343.89518280353997</v>
       </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A40" s="38" t="s">
+      <c r="A40" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B40" s="39">
+      <c r="B40" s="31">
         <f>B23-B26</f>
         <v>2537.9618784237628</v>
       </c>
@@ -28680,7 +28668,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28706,7 +28694,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="str">
+      <c r="A2" s="11" t="str">
         <f>Flows!A2</f>
         <v>A1</v>
       </c>
@@ -28714,17 +28702,17 @@
         <v>29</v>
       </c>
       <c r="C2" s="30">
-        <v>16.733724202107989</v>
+        <v>0.1</v>
       </c>
       <c r="D2" s="31">
-        <v>14.454314320613291</v>
+        <v>0.1</v>
       </c>
       <c r="E2" s="31">
-        <v>2.2794098814946984</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="str">
+      <c r="A3" s="11" t="str">
         <f>Flows!A3</f>
         <v>A2</v>
       </c>
@@ -28742,7 +28730,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="35" t="str">
+      <c r="A4" s="11" t="str">
         <f>Flows!A4</f>
         <v>B1</v>
       </c>
@@ -28760,7 +28748,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="35" t="str">
+      <c r="A5" s="11" t="str">
         <f>Flows!A5</f>
         <v>B4</v>
       </c>
@@ -28778,7 +28766,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="35" t="str">
+      <c r="A6" s="11" t="str">
         <f>Flows!A6</f>
         <v>C1</v>
       </c>
@@ -28796,7 +28784,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="35" t="str">
+      <c r="A7" s="11" t="str">
         <f>Flows!A7</f>
         <v>C2</v>
       </c>
@@ -28814,7 +28802,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="35" t="str">
+      <c r="A8" s="11" t="str">
         <f>Flows!A8</f>
         <v>D1</v>
       </c>
@@ -28832,7 +28820,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="35" t="str">
+      <c r="A9" s="11" t="str">
         <f>Flows!A9</f>
         <v>D2</v>
       </c>
@@ -28850,7 +28838,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="35" t="str">
+      <c r="A10" s="11" t="str">
         <f>Flows!A10</f>
         <v>F1</v>
       </c>
@@ -28868,7 +28856,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="35" t="str">
+      <c r="A11" s="11" t="str">
         <f>Flows!A11</f>
         <v>F2</v>
       </c>
@@ -28876,17 +28864,17 @@
         <v>29</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="D11" s="31">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="E11" s="31">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="35" t="str">
+      <c r="A12" s="11" t="str">
         <f>Flows!A12</f>
         <v>J2</v>
       </c>
@@ -28904,7 +28892,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="11" t="s">
         <v>211</v>
       </c>
       <c r="B13" t="s">
@@ -28913,10 +28901,10 @@
       <c r="C13" s="34">
         <v>2.14</v>
       </c>
-      <c r="D13" s="36">
+      <c r="D13" s="35">
         <v>1.79</v>
       </c>
-      <c r="E13" s="36">
+      <c r="E13" s="35">
         <v>0.35</v>
       </c>
     </row>
